--- a/assets/docs/template-self-assessment.xlsx
+++ b/assets/docs/template-self-assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IKBAL\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siap-aman\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F509C9-E6D0-7248-B7BF-9D42E9210842}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B2807F-8288-4CF7-B75C-EB948F63B20C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BAB I" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BAB IV" sheetId="22" r:id="rId4"/>
     <sheet name="CAPAIAN AKHIR" sheetId="23" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="662">
   <si>
     <t>SKOR</t>
   </si>
@@ -3737,7 +3737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3918,14 +3918,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF66FF33"/>
       <name val="Calibri"/>
@@ -3942,7 +3934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3970,12 +3962,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4322,7 +4308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4791,15 +4777,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4807,9 +4784,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4827,20 +4801,11 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4848,10 +4813,7 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4859,21 +4821,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4890,6 +4837,24 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5230,34 +5195,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A174" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.46875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="62.55078125" style="78" customWidth="1"/>
-    <col min="3" max="3" width="8.7421875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="21.65625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="8.7421875" style="56" customWidth="1"/>
-    <col min="6" max="6" width="71.296875" style="56" customWidth="1"/>
-    <col min="7" max="7" width="82.59765625" style="51" customWidth="1"/>
-    <col min="8" max="16384" width="9.14453125" style="51"/>
+    <col min="1" max="1" width="15.42578125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="78" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="56" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="82.5703125" style="51" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="192" t="s">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>118</v>
       </c>
@@ -5266,7 +5231,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>9</v>
       </c>
@@ -5276,7 +5241,7 @@
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>7</v>
       </c>
@@ -5286,7 +5251,7 @@
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>8</v>
       </c>
@@ -5296,11 +5261,11 @@
       <c r="F6" s="54"/>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="57"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>158</v>
       </c>
@@ -5319,7 +5284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
         <v>10</v>
       </c>
@@ -5330,7 +5295,7 @@
       <c r="F9" s="82"/>
       <c r="G9" s="83"/>
     </row>
-    <row r="10" spans="1:7" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>23</v>
       </c>
@@ -5345,7 +5310,7 @@
       <c r="F10" s="60"/>
       <c r="G10" s="61"/>
     </row>
-    <row r="11" spans="1:7" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>13</v>
       </c>
@@ -5360,7 +5325,7 @@
       <c r="F11" s="60"/>
       <c r="G11" s="61"/>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
         <v>14</v>
       </c>
@@ -5375,7 +5340,7 @@
       <c r="F12" s="60"/>
       <c r="G12" s="61"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>15</v>
       </c>
@@ -5390,7 +5355,7 @@
       <c r="F13" s="60"/>
       <c r="G13" s="61"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>2</v>
       </c>
@@ -5410,7 +5375,7 @@
       <c r="F14" s="65"/>
       <c r="G14" s="61"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -5419,7 +5384,7 @@
       <c r="F15" s="60"/>
       <c r="G15" s="61"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>119</v>
       </c>
@@ -5434,7 +5399,7 @@
       <c r="F16" s="60"/>
       <c r="G16" s="61"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>23</v>
       </c>
@@ -5449,7 +5414,7 @@
       <c r="F17" s="80"/>
       <c r="G17" s="61"/>
     </row>
-    <row r="18" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>13</v>
       </c>
@@ -5464,7 +5429,7 @@
       <c r="F18" s="80"/>
       <c r="G18" s="61"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>14</v>
       </c>
@@ -5479,7 +5444,7 @@
       <c r="F19" s="80"/>
       <c r="G19" s="61"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
         <v>2</v>
       </c>
@@ -5499,7 +5464,7 @@
       <c r="F20" s="65"/>
       <c r="G20" s="61"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="59"/>
       <c r="C21" s="58"/>
@@ -5508,7 +5473,7 @@
       <c r="F21" s="60"/>
       <c r="G21" s="61"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
         <v>141</v>
       </c>
@@ -5523,7 +5488,7 @@
       <c r="F22" s="60"/>
       <c r="G22" s="61"/>
     </row>
-    <row r="23" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>23</v>
       </c>
@@ -5538,7 +5503,7 @@
       <c r="F23" s="60"/>
       <c r="G23" s="61"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>13</v>
       </c>
@@ -5553,7 +5518,7 @@
       <c r="F24" s="79"/>
       <c r="G24" s="61"/>
     </row>
-    <row r="25" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>14</v>
       </c>
@@ -5568,7 +5533,7 @@
       <c r="F25" s="60"/>
       <c r="G25" s="61"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
         <v>2</v>
       </c>
@@ -5588,7 +5553,7 @@
       <c r="F26" s="65"/>
       <c r="G26" s="61"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59"/>
       <c r="C27" s="58"/>
@@ -5597,7 +5562,7 @@
       <c r="F27" s="60"/>
       <c r="G27" s="61"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>142</v>
       </c>
@@ -5612,7 +5577,7 @@
       <c r="F28" s="60"/>
       <c r="G28" s="61"/>
     </row>
-    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
         <v>23</v>
       </c>
@@ -5627,7 +5592,7 @@
       <c r="F29" s="60"/>
       <c r="G29" s="61"/>
     </row>
-    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
         <v>13</v>
       </c>
@@ -5642,7 +5607,7 @@
       <c r="F30" s="60"/>
       <c r="G30" s="61"/>
     </row>
-    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
         <v>14</v>
       </c>
@@ -5657,7 +5622,7 @@
       <c r="F31" s="115"/>
       <c r="G31" s="61"/>
     </row>
-    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
         <v>15</v>
       </c>
@@ -5672,7 +5637,7 @@
       <c r="F32" s="115"/>
       <c r="G32" s="61"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
         <v>16</v>
       </c>
@@ -5687,7 +5652,7 @@
       <c r="F33" s="115"/>
       <c r="G33" s="61"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>2</v>
       </c>
@@ -5707,7 +5672,7 @@
       <c r="F34" s="65"/>
       <c r="G34" s="61"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="59"/>
       <c r="C35" s="58"/>
@@ -5716,7 +5681,7 @@
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58" t="s">
         <v>143</v>
       </c>
@@ -5731,7 +5696,7 @@
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
     </row>
-    <row r="37" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
         <v>23</v>
       </c>
@@ -5746,7 +5711,7 @@
       <c r="F37" s="60"/>
       <c r="G37" s="61"/>
     </row>
-    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="62" t="s">
         <v>13</v>
       </c>
@@ -5761,7 +5726,7 @@
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
-    <row r="39" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="62" t="s">
         <v>14</v>
       </c>
@@ -5776,7 +5741,7 @@
       <c r="F39" s="79"/>
       <c r="G39" s="61"/>
     </row>
-    <row r="40" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62" t="s">
         <v>15</v>
       </c>
@@ -5791,7 +5756,7 @@
       <c r="F40" s="79"/>
       <c r="G40" s="61"/>
     </row>
-    <row r="41" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62" t="s">
         <v>16</v>
       </c>
@@ -5806,7 +5771,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="61"/>
     </row>
-    <row r="42" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
         <v>17</v>
       </c>
@@ -5821,7 +5786,7 @@
       <c r="F42" s="60"/>
       <c r="G42" s="61"/>
     </row>
-    <row r="43" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62" t="s">
         <v>18</v>
       </c>
@@ -5836,7 +5801,7 @@
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
         <v>2</v>
       </c>
@@ -5856,7 +5821,7 @@
       <c r="F44" s="65"/>
       <c r="G44" s="61"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="58"/>
       <c r="B45" s="59"/>
       <c r="C45" s="58"/>
@@ -5865,7 +5830,7 @@
       <c r="F45" s="60"/>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="58" t="s">
         <v>144</v>
       </c>
@@ -5880,7 +5845,7 @@
       <c r="F46" s="60"/>
       <c r="G46" s="61"/>
     </row>
-    <row r="47" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
         <v>23</v>
       </c>
@@ -5895,7 +5860,7 @@
       <c r="F47" s="60"/>
       <c r="G47" s="61"/>
     </row>
-    <row r="48" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
         <v>13</v>
       </c>
@@ -5910,7 +5875,7 @@
       <c r="F48" s="60"/>
       <c r="G48" s="61"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="62" t="s">
         <v>14</v>
       </c>
@@ -5925,7 +5890,7 @@
       <c r="F49" s="60"/>
       <c r="G49" s="61"/>
     </row>
-    <row r="50" spans="1:7" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="62" t="s">
         <v>15</v>
       </c>
@@ -5940,7 +5905,7 @@
       <c r="F50" s="60"/>
       <c r="G50" s="61"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
         <v>2</v>
       </c>
@@ -5960,7 +5925,7 @@
       <c r="F51" s="65"/>
       <c r="G51" s="61"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
       <c r="B52" s="59"/>
       <c r="C52" s="58"/>
@@ -5969,7 +5934,7 @@
       <c r="F52" s="60"/>
       <c r="G52" s="61"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="58" t="s">
         <v>183</v>
       </c>
@@ -5984,7 +5949,7 @@
       <c r="F53" s="60"/>
       <c r="G53" s="61"/>
     </row>
-    <row r="54" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>23</v>
       </c>
@@ -5999,7 +5964,7 @@
       <c r="F54" s="60"/>
       <c r="G54" s="61"/>
     </row>
-    <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>13</v>
       </c>
@@ -6014,7 +5979,7 @@
       <c r="F55" s="60"/>
       <c r="G55" s="61"/>
     </row>
-    <row r="56" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="s">
         <v>14</v>
       </c>
@@ -6029,7 +5994,7 @@
       <c r="F56" s="60"/>
       <c r="G56" s="61"/>
     </row>
-    <row r="57" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62" t="s">
         <v>15</v>
       </c>
@@ -6044,7 +6009,7 @@
       <c r="F57" s="60"/>
       <c r="G57" s="61"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="62" t="s">
         <v>16</v>
       </c>
@@ -6059,7 +6024,7 @@
       <c r="F58" s="60"/>
       <c r="G58" s="61"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
         <v>2</v>
       </c>
@@ -6079,7 +6044,7 @@
       <c r="F59" s="65"/>
       <c r="G59" s="61"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
       <c r="B60" s="59"/>
       <c r="C60" s="58"/>
@@ -6088,7 +6053,7 @@
       <c r="F60" s="60"/>
       <c r="G60" s="61"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
         <v>120</v>
       </c>
@@ -6103,7 +6068,7 @@
       <c r="F61" s="60"/>
       <c r="G61" s="61"/>
     </row>
-    <row r="62" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="62" t="s">
         <v>23</v>
       </c>
@@ -6118,7 +6083,7 @@
       <c r="F62" s="60"/>
       <c r="G62" s="67"/>
     </row>
-    <row r="63" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="62" t="s">
         <v>13</v>
       </c>
@@ -6133,7 +6098,7 @@
       <c r="F63" s="60"/>
       <c r="G63" s="67"/>
     </row>
-    <row r="64" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="62" t="s">
         <v>14</v>
       </c>
@@ -6148,7 +6113,7 @@
       <c r="F64" s="60"/>
       <c r="G64" s="67"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
         <v>2</v>
       </c>
@@ -6168,7 +6133,7 @@
       <c r="F65" s="65"/>
       <c r="G65" s="67"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="60"/>
       <c r="B66" s="64"/>
       <c r="C66" s="60"/>
@@ -6177,7 +6142,7 @@
       <c r="F66" s="68"/>
       <c r="G66" s="67"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6157,7 @@
       <c r="F67" s="69"/>
       <c r="G67" s="67"/>
     </row>
-    <row r="68" spans="1:7" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="62" t="s">
         <v>23</v>
       </c>
@@ -6207,7 +6172,7 @@
       <c r="F68" s="69"/>
       <c r="G68" s="67"/>
     </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
         <v>13</v>
       </c>
@@ -6222,7 +6187,7 @@
       <c r="F69" s="69"/>
       <c r="G69" s="67"/>
     </row>
-    <row r="70" spans="1:7" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="62" t="s">
         <v>14</v>
       </c>
@@ -6237,7 +6202,7 @@
       <c r="F70" s="69"/>
       <c r="G70" s="67"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
         <v>2</v>
       </c>
@@ -6257,7 +6222,7 @@
       <c r="F71" s="65"/>
       <c r="G71" s="67"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="67"/>
       <c r="B72" s="70"/>
       <c r="C72" s="60"/>
@@ -6266,7 +6231,7 @@
       <c r="F72" s="69"/>
       <c r="G72" s="67"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="58" t="s">
         <v>121</v>
       </c>
@@ -6281,7 +6246,7 @@
       <c r="F73" s="69"/>
       <c r="G73" s="67"/>
     </row>
-    <row r="74" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="62" t="s">
         <v>12</v>
       </c>
@@ -6296,7 +6261,7 @@
       <c r="F74" s="69"/>
       <c r="G74" s="67"/>
     </row>
-    <row r="75" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
         <v>13</v>
       </c>
@@ -6311,7 +6276,7 @@
       <c r="F75" s="69"/>
       <c r="G75" s="67"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
         <v>2</v>
       </c>
@@ -6331,7 +6296,7 @@
       <c r="F76" s="65"/>
       <c r="G76" s="67"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
       <c r="B77" s="70"/>
       <c r="C77" s="60"/>
@@ -6340,7 +6305,7 @@
       <c r="F77" s="69"/>
       <c r="G77" s="67"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="58" t="s">
         <v>122</v>
       </c>
@@ -6355,7 +6320,7 @@
       <c r="F78" s="69"/>
       <c r="G78" s="67"/>
     </row>
-    <row r="79" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="62" t="s">
         <v>12</v>
       </c>
@@ -6370,7 +6335,7 @@
       <c r="F79" s="110"/>
       <c r="G79" s="67"/>
     </row>
-    <row r="80" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="62" t="s">
         <v>13</v>
       </c>
@@ -6385,7 +6350,7 @@
       <c r="F80" s="110"/>
       <c r="G80" s="67"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="62" t="s">
         <v>14</v>
       </c>
@@ -6400,7 +6365,7 @@
       <c r="F81" s="69"/>
       <c r="G81" s="67"/>
     </row>
-    <row r="82" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="62" t="s">
         <v>15</v>
       </c>
@@ -6415,7 +6380,7 @@
       <c r="F82" s="69"/>
       <c r="G82" s="67"/>
     </row>
-    <row r="83" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="62" t="s">
         <v>16</v>
       </c>
@@ -6430,7 +6395,7 @@
       <c r="F83" s="69"/>
       <c r="G83" s="67"/>
     </row>
-    <row r="84" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="62" t="s">
         <v>17</v>
       </c>
@@ -6445,7 +6410,7 @@
       <c r="F84" s="69"/>
       <c r="G84" s="67"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
         <v>2</v>
       </c>
@@ -6465,7 +6430,7 @@
       <c r="F85" s="65"/>
       <c r="G85" s="67"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="67"/>
       <c r="B86" s="70"/>
       <c r="C86" s="60"/>
@@ -6474,7 +6439,7 @@
       <c r="F86" s="69"/>
       <c r="G86" s="67"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="58" t="s">
         <v>123</v>
       </c>
@@ -6489,7 +6454,7 @@
       <c r="F87" s="69"/>
       <c r="G87" s="67"/>
     </row>
-    <row r="88" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="62" t="s">
         <v>12</v>
       </c>
@@ -6504,7 +6469,7 @@
       <c r="F88" s="69"/>
       <c r="G88" s="67"/>
     </row>
-    <row r="89" spans="1:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="62" t="s">
         <v>13</v>
       </c>
@@ -6519,7 +6484,7 @@
       <c r="F89" s="69"/>
       <c r="G89" s="67"/>
     </row>
-    <row r="90" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="62" t="s">
         <v>14</v>
       </c>
@@ -6534,7 +6499,7 @@
       <c r="F90" s="69"/>
       <c r="G90" s="67"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
         <v>2</v>
       </c>
@@ -6554,7 +6519,7 @@
       <c r="F91" s="65"/>
       <c r="G91" s="67"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="60"/>
       <c r="B92" s="64"/>
       <c r="C92" s="60"/>
@@ -6563,7 +6528,7 @@
       <c r="F92" s="68"/>
       <c r="G92" s="67"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="58" t="s">
         <v>124</v>
       </c>
@@ -6578,7 +6543,7 @@
       <c r="F93" s="69"/>
       <c r="G93" s="67"/>
     </row>
-    <row r="94" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="62" t="s">
         <v>12</v>
       </c>
@@ -6593,7 +6558,7 @@
       <c r="F94" s="69"/>
       <c r="G94" s="67"/>
     </row>
-    <row r="95" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="62" t="s">
         <v>13</v>
       </c>
@@ -6608,7 +6573,7 @@
       <c r="F95" s="69"/>
       <c r="G95" s="67"/>
     </row>
-    <row r="96" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="62" t="s">
         <v>14</v>
       </c>
@@ -6623,7 +6588,7 @@
       <c r="F96" s="69"/>
       <c r="G96" s="67"/>
     </row>
-    <row r="97" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="62" t="s">
         <v>15</v>
       </c>
@@ -6638,7 +6603,7 @@
       <c r="F97" s="69"/>
       <c r="G97" s="67"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
         <v>2</v>
       </c>
@@ -6658,7 +6623,7 @@
       <c r="F98" s="65"/>
       <c r="G98" s="67"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="67"/>
       <c r="B99" s="70"/>
       <c r="C99" s="60"/>
@@ -6667,7 +6632,7 @@
       <c r="F99" s="71"/>
       <c r="G99" s="67"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="58" t="s">
         <v>125</v>
       </c>
@@ -6682,7 +6647,7 @@
       <c r="F100" s="69"/>
       <c r="G100" s="67"/>
     </row>
-    <row r="101" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="62" t="s">
         <v>12</v>
       </c>
@@ -6697,7 +6662,7 @@
       <c r="F101" s="69"/>
       <c r="G101" s="67"/>
     </row>
-    <row r="102" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="62" t="s">
         <v>13</v>
       </c>
@@ -6712,7 +6677,7 @@
       <c r="F102" s="69"/>
       <c r="G102" s="67"/>
     </row>
-    <row r="103" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="62" t="s">
         <v>14</v>
       </c>
@@ -6727,7 +6692,7 @@
       <c r="F103" s="69"/>
       <c r="G103" s="67"/>
     </row>
-    <row r="104" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="62" t="s">
         <v>15</v>
       </c>
@@ -6742,7 +6707,7 @@
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="60" t="s">
         <v>2</v>
       </c>
@@ -6762,7 +6727,7 @@
       <c r="F105" s="65"/>
       <c r="G105" s="67"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="60"/>
       <c r="B106" s="64"/>
       <c r="C106" s="60"/>
@@ -6771,7 +6736,7 @@
       <c r="F106" s="68"/>
       <c r="G106" s="67"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="58" t="s">
         <v>126</v>
       </c>
@@ -6786,7 +6751,7 @@
       <c r="F107" s="69"/>
       <c r="G107" s="67"/>
     </row>
-    <row r="108" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="62" t="s">
         <v>12</v>
       </c>
@@ -6801,7 +6766,7 @@
       <c r="F108" s="69"/>
       <c r="G108" s="67"/>
     </row>
-    <row r="109" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="62" t="s">
         <v>13</v>
       </c>
@@ -6816,7 +6781,7 @@
       <c r="F109" s="69"/>
       <c r="G109" s="67"/>
     </row>
-    <row r="110" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="62" t="s">
         <v>14</v>
       </c>
@@ -6831,7 +6796,7 @@
       <c r="F110" s="69"/>
       <c r="G110" s="67"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="60" t="s">
         <v>2</v>
       </c>
@@ -6851,7 +6816,7 @@
       <c r="F111" s="65"/>
       <c r="G111" s="67"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
       <c r="B112" s="64"/>
       <c r="C112" s="60"/>
@@ -6860,7 +6825,7 @@
       <c r="F112" s="68"/>
       <c r="G112" s="67"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="58" t="s">
         <v>127</v>
       </c>
@@ -6875,7 +6840,7 @@
       <c r="F113" s="69"/>
       <c r="G113" s="67"/>
     </row>
-    <row r="114" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="62" t="s">
         <v>12</v>
       </c>
@@ -6890,7 +6855,7 @@
       <c r="F114" s="69"/>
       <c r="G114" s="67"/>
     </row>
-    <row r="115" spans="1:7" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="62" t="s">
         <v>13</v>
       </c>
@@ -6905,7 +6870,7 @@
       <c r="F115" s="69"/>
       <c r="G115" s="67"/>
     </row>
-    <row r="116" spans="1:7" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="62" t="s">
         <v>14</v>
       </c>
@@ -6920,7 +6885,7 @@
       <c r="F116" s="69"/>
       <c r="G116" s="67"/>
     </row>
-    <row r="117" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="62" t="s">
         <v>15</v>
       </c>
@@ -6935,7 +6900,7 @@
       <c r="F117" s="69"/>
       <c r="G117" s="67"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="60" t="s">
         <v>2</v>
       </c>
@@ -6955,7 +6920,7 @@
       <c r="F118" s="65"/>
       <c r="G118" s="67"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="60"/>
       <c r="B119" s="64"/>
       <c r="C119" s="60"/>
@@ -6964,7 +6929,7 @@
       <c r="F119" s="68"/>
       <c r="G119" s="67"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="58" t="s">
         <v>128</v>
       </c>
@@ -6979,7 +6944,7 @@
       <c r="F120" s="69"/>
       <c r="G120" s="67"/>
     </row>
-    <row r="121" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="62" t="s">
         <v>12</v>
       </c>
@@ -6994,7 +6959,7 @@
       <c r="F121" s="69"/>
       <c r="G121" s="67"/>
     </row>
-    <row r="122" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="62" t="s">
         <v>13</v>
       </c>
@@ -7009,7 +6974,7 @@
       <c r="F122" s="69"/>
       <c r="G122" s="67"/>
     </row>
-    <row r="123" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="62" t="s">
         <v>14</v>
       </c>
@@ -7024,7 +6989,7 @@
       <c r="F123" s="69"/>
       <c r="G123" s="67"/>
     </row>
-    <row r="124" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="62" t="s">
         <v>15</v>
       </c>
@@ -7039,7 +7004,7 @@
       <c r="F124" s="69"/>
       <c r="G124" s="67"/>
     </row>
-    <row r="125" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="62" t="s">
         <v>16</v>
       </c>
@@ -7054,7 +7019,7 @@
       <c r="F125" s="69"/>
       <c r="G125" s="67"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="60" t="s">
         <v>2</v>
       </c>
@@ -7074,7 +7039,7 @@
       <c r="F126" s="65"/>
       <c r="G126" s="67"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="60"/>
       <c r="B127" s="64"/>
       <c r="C127" s="60"/>
@@ -7083,7 +7048,7 @@
       <c r="F127" s="68"/>
       <c r="G127" s="67"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="58" t="s">
         <v>129</v>
       </c>
@@ -7098,7 +7063,7 @@
       <c r="F128" s="69"/>
       <c r="G128" s="67"/>
     </row>
-    <row r="129" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="62" t="s">
         <v>12</v>
       </c>
@@ -7113,7 +7078,7 @@
       <c r="F129" s="69"/>
       <c r="G129" s="67"/>
     </row>
-    <row r="130" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="62" t="s">
         <v>13</v>
       </c>
@@ -7128,7 +7093,7 @@
       <c r="F130" s="69"/>
       <c r="G130" s="67"/>
     </row>
-    <row r="131" spans="1:7" ht="44.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="62" t="s">
         <v>14</v>
       </c>
@@ -7143,7 +7108,7 @@
       <c r="F131" s="69"/>
       <c r="G131" s="67"/>
     </row>
-    <row r="132" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="62" t="s">
         <v>15</v>
       </c>
@@ -7158,7 +7123,7 @@
       <c r="F132" s="69"/>
       <c r="G132" s="67"/>
     </row>
-    <row r="133" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="62" t="s">
         <v>16</v>
       </c>
@@ -7173,7 +7138,7 @@
       <c r="F133" s="69"/>
       <c r="G133" s="67"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="60" t="s">
         <v>2</v>
       </c>
@@ -7193,7 +7158,7 @@
       <c r="F134" s="65"/>
       <c r="G134" s="67"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="60"/>
       <c r="B135" s="64"/>
       <c r="C135" s="60"/>
@@ -7202,7 +7167,7 @@
       <c r="F135" s="68"/>
       <c r="G135" s="67"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="58" t="s">
         <v>130</v>
       </c>
@@ -7217,7 +7182,7 @@
       <c r="F136" s="69"/>
       <c r="G136" s="67"/>
     </row>
-    <row r="137" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="62" t="s">
         <v>12</v>
       </c>
@@ -7232,7 +7197,7 @@
       <c r="F137" s="79"/>
       <c r="G137" s="79"/>
     </row>
-    <row r="138" spans="1:7" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="62" t="s">
         <v>13</v>
       </c>
@@ -7247,7 +7212,7 @@
       <c r="F138" s="69"/>
       <c r="G138" s="67"/>
     </row>
-    <row r="139" spans="1:7" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="62" t="s">
         <v>14</v>
       </c>
@@ -7262,7 +7227,7 @@
       <c r="F139" s="79"/>
       <c r="G139" s="67"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="60" t="s">
         <v>2</v>
       </c>
@@ -7282,7 +7247,7 @@
       <c r="F140" s="65"/>
       <c r="G140" s="67"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="60"/>
       <c r="B141" s="64"/>
       <c r="C141" s="60"/>
@@ -7291,7 +7256,7 @@
       <c r="F141" s="68"/>
       <c r="G141" s="67"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="58" t="s">
         <v>131</v>
       </c>
@@ -7306,7 +7271,7 @@
       <c r="F142" s="69"/>
       <c r="G142" s="67"/>
     </row>
-    <row r="143" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="62" t="s">
         <v>12</v>
       </c>
@@ -7321,7 +7286,7 @@
       <c r="F143" s="69"/>
       <c r="G143" s="67"/>
     </row>
-    <row r="144" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="62" t="s">
         <v>13</v>
       </c>
@@ -7336,7 +7301,7 @@
       <c r="F144" s="69"/>
       <c r="G144" s="67"/>
     </row>
-    <row r="145" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="62" t="s">
         <v>14</v>
       </c>
@@ -7351,7 +7316,7 @@
       <c r="F145" s="79"/>
       <c r="G145" s="67"/>
     </row>
-    <row r="146" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="62" t="s">
         <v>15</v>
       </c>
@@ -7366,7 +7331,7 @@
       <c r="F146" s="79"/>
       <c r="G146" s="67"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="60" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7351,7 @@
       <c r="F147" s="65"/>
       <c r="G147" s="67"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="60"/>
       <c r="B148" s="64"/>
       <c r="C148" s="60"/>
@@ -7395,7 +7360,7 @@
       <c r="F148" s="68"/>
       <c r="G148" s="67"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="58" t="s">
         <v>132</v>
       </c>
@@ -7410,7 +7375,7 @@
       <c r="F149" s="69"/>
       <c r="G149" s="67"/>
     </row>
-    <row r="150" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="62" t="s">
         <v>12</v>
       </c>
@@ -7425,7 +7390,7 @@
       <c r="F150" s="79"/>
       <c r="G150" s="67"/>
     </row>
-    <row r="151" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="62" t="s">
         <v>13</v>
       </c>
@@ -7440,7 +7405,7 @@
       <c r="F151" s="69"/>
       <c r="G151" s="67"/>
     </row>
-    <row r="152" spans="1:7" ht="44.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="62" t="s">
         <v>14</v>
       </c>
@@ -7455,7 +7420,7 @@
       <c r="F152" s="69"/>
       <c r="G152" s="67"/>
     </row>
-    <row r="153" spans="1:7" ht="44.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="62" t="s">
         <v>15</v>
       </c>
@@ -7470,7 +7435,7 @@
       <c r="F153" s="69"/>
       <c r="G153" s="67"/>
     </row>
-    <row r="154" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="62" t="s">
         <v>16</v>
       </c>
@@ -7485,7 +7450,7 @@
       <c r="F154" s="69"/>
       <c r="G154" s="67"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="60" t="s">
         <v>2</v>
       </c>
@@ -7505,7 +7470,7 @@
       <c r="F155" s="65"/>
       <c r="G155" s="67"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="60"/>
       <c r="B156" s="64"/>
       <c r="C156" s="60"/>
@@ -7514,7 +7479,7 @@
       <c r="F156" s="68"/>
       <c r="G156" s="67"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="58" t="s">
         <v>133</v>
       </c>
@@ -7529,7 +7494,7 @@
       <c r="F157" s="69"/>
       <c r="G157" s="67"/>
     </row>
-    <row r="158" spans="1:7" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="62" t="s">
         <v>12</v>
       </c>
@@ -7544,7 +7509,7 @@
       <c r="F158" s="69"/>
       <c r="G158" s="67"/>
     </row>
-    <row r="159" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="62" t="s">
         <v>13</v>
       </c>
@@ -7559,7 +7524,7 @@
       <c r="F159" s="69"/>
       <c r="G159" s="67"/>
     </row>
-    <row r="160" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="62" t="s">
         <v>14</v>
       </c>
@@ -7574,7 +7539,7 @@
       <c r="F160" s="69"/>
       <c r="G160" s="67"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="62" t="s">
         <v>15</v>
       </c>
@@ -7589,7 +7554,7 @@
       <c r="F161" s="69"/>
       <c r="G161" s="67"/>
     </row>
-    <row r="162" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="62" t="s">
         <v>16</v>
       </c>
@@ -7604,7 +7569,7 @@
       <c r="F162" s="69"/>
       <c r="G162" s="67"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="62" t="s">
         <v>17</v>
       </c>
@@ -7619,7 +7584,7 @@
       <c r="F163" s="69"/>
       <c r="G163" s="67"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="60" t="s">
         <v>2</v>
       </c>
@@ -7639,7 +7604,7 @@
       <c r="F164" s="65"/>
       <c r="G164" s="67"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="60"/>
       <c r="B165" s="64"/>
       <c r="C165" s="60"/>
@@ -7648,7 +7613,7 @@
       <c r="F165" s="68"/>
       <c r="G165" s="67"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="58" t="s">
         <v>134</v>
       </c>
@@ -7663,7 +7628,7 @@
       <c r="F166" s="69"/>
       <c r="G166" s="67"/>
     </row>
-    <row r="167" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="62" t="s">
         <v>12</v>
       </c>
@@ -7678,7 +7643,7 @@
       <c r="F167" s="69"/>
       <c r="G167" s="67"/>
     </row>
-    <row r="168" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="62" t="s">
         <v>13</v>
       </c>
@@ -7693,7 +7658,7 @@
       <c r="F168" s="69"/>
       <c r="G168" s="67"/>
     </row>
-    <row r="169" spans="1:7" ht="44.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="62" t="s">
         <v>14</v>
       </c>
@@ -7708,7 +7673,7 @@
       <c r="F169" s="114"/>
       <c r="G169" s="67"/>
     </row>
-    <row r="170" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="62" t="s">
         <v>15</v>
       </c>
@@ -7723,7 +7688,7 @@
       <c r="F170" s="69"/>
       <c r="G170" s="67"/>
     </row>
-    <row r="171" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="62" t="s">
         <v>16</v>
       </c>
@@ -7738,7 +7703,7 @@
       <c r="F171" s="69"/>
       <c r="G171" s="67"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="60" t="s">
         <v>2</v>
       </c>
@@ -7758,7 +7723,7 @@
       <c r="F172" s="65"/>
       <c r="G172" s="67"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="60"/>
       <c r="B173" s="64"/>
       <c r="C173" s="60"/>
@@ -7767,7 +7732,7 @@
       <c r="F173" s="68"/>
       <c r="G173" s="67"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="58" t="s">
         <v>135</v>
       </c>
@@ -7782,7 +7747,7 @@
       <c r="F174" s="69"/>
       <c r="G174" s="67"/>
     </row>
-    <row r="175" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="62" t="s">
         <v>12</v>
       </c>
@@ -7797,7 +7762,7 @@
       <c r="F175" s="69"/>
       <c r="G175" s="67"/>
     </row>
-    <row r="176" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="62" t="s">
         <v>13</v>
       </c>
@@ -7812,7 +7777,7 @@
       <c r="F176" s="69"/>
       <c r="G176" s="67"/>
     </row>
-    <row r="177" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="62" t="s">
         <v>14</v>
       </c>
@@ -7827,7 +7792,7 @@
       <c r="F177" s="69"/>
       <c r="G177" s="69"/>
     </row>
-    <row r="178" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="62" t="s">
         <v>15</v>
       </c>
@@ -7842,7 +7807,7 @@
       <c r="F178" s="79"/>
       <c r="G178" s="67"/>
     </row>
-    <row r="179" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="62" t="s">
         <v>16</v>
       </c>
@@ -7857,7 +7822,7 @@
       <c r="F179" s="69"/>
       <c r="G179" s="67"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="60" t="s">
         <v>2</v>
       </c>
@@ -7877,7 +7842,7 @@
       <c r="F180" s="65"/>
       <c r="G180" s="67"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="67"/>
       <c r="B181" s="70"/>
       <c r="C181" s="60"/>
@@ -7886,7 +7851,7 @@
       <c r="F181" s="71"/>
       <c r="G181" s="67"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="58" t="s">
         <v>136</v>
       </c>
@@ -7901,7 +7866,7 @@
       <c r="F182" s="69"/>
       <c r="G182" s="67"/>
     </row>
-    <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="62" t="s">
         <v>12</v>
       </c>
@@ -7916,7 +7881,7 @@
       <c r="F183" s="114"/>
       <c r="G183" s="67"/>
     </row>
-    <row r="184" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="62" t="s">
         <v>13</v>
       </c>
@@ -7931,7 +7896,7 @@
       <c r="F184" s="69"/>
       <c r="G184" s="67"/>
     </row>
-    <row r="185" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="62" t="s">
         <v>14</v>
       </c>
@@ -7946,7 +7911,7 @@
       <c r="F185" s="114"/>
       <c r="G185" s="67"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="60" t="s">
         <v>2</v>
       </c>
@@ -7966,7 +7931,7 @@
       <c r="F186" s="65"/>
       <c r="G186" s="67"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="67"/>
       <c r="B187" s="70"/>
       <c r="C187" s="60"/>
@@ -7975,7 +7940,7 @@
       <c r="F187" s="60"/>
       <c r="G187" s="67"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="58" t="s">
         <v>137</v>
       </c>
@@ -7990,7 +7955,7 @@
       <c r="F188" s="69"/>
       <c r="G188" s="67"/>
     </row>
-    <row r="189" spans="1:7" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="62" t="s">
         <v>12</v>
       </c>
@@ -8005,7 +7970,7 @@
       <c r="F189" s="69"/>
       <c r="G189" s="67"/>
     </row>
-    <row r="190" spans="1:7" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="62" t="s">
         <v>13</v>
       </c>
@@ -8020,7 +7985,7 @@
       <c r="F190" s="69"/>
       <c r="G190" s="67"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="60" t="s">
         <v>2</v>
       </c>
@@ -8040,7 +8005,7 @@
       <c r="F191" s="65"/>
       <c r="G191" s="67"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="67"/>
       <c r="B192" s="70"/>
       <c r="C192" s="60"/>
@@ -8049,7 +8014,7 @@
       <c r="F192" s="60"/>
       <c r="G192" s="67"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="58" t="s">
         <v>138</v>
       </c>
@@ -8064,7 +8029,7 @@
       <c r="F193" s="69"/>
       <c r="G193" s="67"/>
     </row>
-    <row r="194" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="62" t="s">
         <v>12</v>
       </c>
@@ -8079,7 +8044,7 @@
       <c r="F194" s="69"/>
       <c r="G194" s="67"/>
     </row>
-    <row r="195" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="62" t="s">
         <v>13</v>
       </c>
@@ -8094,7 +8059,7 @@
       <c r="F195" s="69"/>
       <c r="G195" s="67"/>
     </row>
-    <row r="196" spans="1:7" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="62" t="s">
         <v>14</v>
       </c>
@@ -8109,7 +8074,7 @@
       <c r="F196" s="69"/>
       <c r="G196" s="67"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="60" t="s">
         <v>2</v>
       </c>
@@ -8129,7 +8094,7 @@
       <c r="F197" s="65"/>
       <c r="G197" s="67"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="67"/>
       <c r="B198" s="70"/>
       <c r="C198" s="60"/>
@@ -8138,7 +8103,7 @@
       <c r="F198" s="60"/>
       <c r="G198" s="67"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="58" t="s">
         <v>139</v>
       </c>
@@ -8153,7 +8118,7 @@
       <c r="F199" s="69"/>
       <c r="G199" s="67"/>
     </row>
-    <row r="200" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="62" t="s">
         <v>12</v>
       </c>
@@ -8168,7 +8133,7 @@
       <c r="F200" s="69"/>
       <c r="G200" s="67"/>
     </row>
-    <row r="201" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="62" t="s">
         <v>13</v>
       </c>
@@ -8183,7 +8148,7 @@
       <c r="F201" s="69"/>
       <c r="G201" s="67"/>
     </row>
-    <row r="202" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="62" t="s">
         <v>14</v>
       </c>
@@ -8198,7 +8163,7 @@
       <c r="F202" s="69"/>
       <c r="G202" s="67"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="60" t="s">
         <v>2</v>
       </c>
@@ -8218,7 +8183,7 @@
       <c r="F203" s="65"/>
       <c r="G203" s="67"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="60"/>
       <c r="B204" s="64"/>
       <c r="C204" s="60"/>
@@ -8227,7 +8192,7 @@
       <c r="F204" s="68"/>
       <c r="G204" s="67"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="58" t="s">
         <v>140</v>
       </c>
@@ -8242,7 +8207,7 @@
       <c r="F205" s="69"/>
       <c r="G205" s="67"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="62" t="s">
         <v>12</v>
       </c>
@@ -8257,7 +8222,7 @@
       <c r="F206" s="69"/>
       <c r="G206" s="67"/>
     </row>
-    <row r="207" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="62" t="s">
         <v>13</v>
       </c>
@@ -8272,7 +8237,7 @@
       <c r="F207" s="69"/>
       <c r="G207" s="67"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="62" t="s">
         <v>14</v>
       </c>
@@ -8287,7 +8252,7 @@
       <c r="F208" s="69"/>
       <c r="G208" s="67"/>
     </row>
-    <row r="209" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="62" t="s">
         <v>15</v>
       </c>
@@ -8302,7 +8267,7 @@
       <c r="F209" s="69"/>
       <c r="G209" s="67"/>
     </row>
-    <row r="210" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="62" t="s">
         <v>16</v>
       </c>
@@ -8317,7 +8282,7 @@
       <c r="F210" s="69"/>
       <c r="G210" s="67"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="62" t="s">
         <v>17</v>
       </c>
@@ -8332,7 +8297,7 @@
       <c r="F211" s="69"/>
       <c r="G211" s="67"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="62" t="s">
         <v>18</v>
       </c>
@@ -8347,7 +8312,7 @@
       <c r="F212" s="69"/>
       <c r="G212" s="67"/>
     </row>
-    <row r="213" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="62" t="s">
         <v>19</v>
       </c>
@@ -8362,7 +8327,7 @@
       <c r="F213" s="69"/>
       <c r="G213" s="67"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="62" t="s">
         <v>20</v>
       </c>
@@ -8377,7 +8342,7 @@
       <c r="F214" s="69"/>
       <c r="G214" s="67"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="62" t="s">
         <v>21</v>
       </c>
@@ -8392,7 +8357,7 @@
       <c r="F215" s="69"/>
       <c r="G215" s="67"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="60" t="s">
         <v>2</v>
       </c>
@@ -8412,7 +8377,7 @@
       <c r="F216" s="65"/>
       <c r="G216" s="67"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="60"/>
       <c r="B217" s="72"/>
       <c r="D217" s="60"/>
@@ -8420,7 +8385,7 @@
       <c r="F217" s="71"/>
       <c r="G217" s="67"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="73" t="s">
         <v>5</v>
       </c>
@@ -8434,7 +8399,7 @@
       <c r="F218" s="69"/>
       <c r="G218" s="67"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="73" t="s">
         <v>6</v>
       </c>
@@ -8446,7 +8411,7 @@
       <c r="D219" s="60"/>
       <c r="G219" s="67"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="58" t="s">
         <v>3</v>
       </c>
@@ -8460,7 +8425,7 @@
       <c r="F220" s="76"/>
       <c r="G220" s="67"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="77"/>
       <c r="B221" s="72"/>
     </row>
@@ -8475,37 +8440,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H291"/>
+  <dimension ref="B2:H264"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView topLeftCell="B255" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.74609375" customWidth="1"/>
-    <col min="2" max="2" width="13.98828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.46875" customWidth="1"/>
-    <col min="4" max="4" width="9.68359375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.73828125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.7421875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.84765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="63.8984375" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="63.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="193" t="s">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>508</v>
       </c>
@@ -8516,7 +8481,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
@@ -8527,7 +8492,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
@@ -8538,7 +8503,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
@@ -8549,11 +8514,11 @@
       <c r="G6" s="16"/>
       <c r="H6" s="116"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -8574,7 +8539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
@@ -8589,7 +8554,7 @@
       <c r="G9" s="62"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
@@ -8604,7 +8569,7 @@
       <c r="G10" s="119"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
@@ -8619,7 +8584,7 @@
       <c r="G11" s="119"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
@@ -8634,7 +8599,7 @@
       <c r="G12" s="119"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
@@ -8649,7 +8614,7 @@
       <c r="G13" s="119"/>
       <c r="H13" s="62"/>
     </row>
-    <row r="14" spans="2:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
@@ -8664,7 +8629,7 @@
       <c r="G14" s="119"/>
       <c r="H14" s="62"/>
     </row>
-    <row r="15" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -8679,12 +8644,12 @@
       <c r="G15" s="119"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="120"/>
-      <c r="D16" s="155">
+      <c r="D16" s="188">
         <f>SUM(D9:D15)</f>
         <v>0</v>
       </c>
@@ -8699,7 +8664,7 @@
       <c r="G16" s="121"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="156"/>
@@ -8708,7 +8673,7 @@
       <c r="G17" s="121"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
@@ -8723,7 +8688,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
@@ -8738,7 +8703,7 @@
       <c r="G19" s="157"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>13</v>
       </c>
@@ -8753,7 +8718,7 @@
       <c r="G20" s="158"/>
       <c r="H20" s="144"/>
     </row>
-    <row r="21" spans="2:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
@@ -8768,7 +8733,7 @@
       <c r="G21" s="157"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>15</v>
       </c>
@@ -8783,7 +8748,7 @@
       <c r="G22" s="158"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
@@ -8798,7 +8763,7 @@
       <c r="G23" s="158"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>17</v>
       </c>
@@ -8812,12 +8777,12 @@
       <c r="F24" s="9"/>
       <c r="G24" s="158"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="120"/>
-      <c r="D25" s="155">
+      <c r="D25" s="188">
         <f>SUM(D19:D24)</f>
         <v>0</v>
       </c>
@@ -8832,7 +8797,7 @@
       <c r="G25" s="121"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="1"/>
       <c r="D26" s="156"/>
@@ -8841,12 +8806,12 @@
       <c r="G26" s="121"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="122"/>
-      <c r="D27" s="159" t="s">
+      <c r="D27" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -8856,7 +8821,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" ht="55.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>12</v>
       </c>
@@ -8871,7 +8836,7 @@
       <c r="G28" s="157"/>
       <c r="H28" s="161"/>
     </row>
-    <row r="29" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>13</v>
       </c>
@@ -8886,7 +8851,7 @@
       <c r="G29" s="158"/>
       <c r="H29" s="161"/>
     </row>
-    <row r="30" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>14</v>
       </c>
@@ -8901,7 +8866,7 @@
       <c r="G30" s="158"/>
       <c r="H30" s="161"/>
     </row>
-    <row r="31" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>15</v>
       </c>
@@ -8916,7 +8881,7 @@
       <c r="G31" s="158"/>
       <c r="H31" s="161"/>
     </row>
-    <row r="32" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
@@ -8931,14 +8896,14 @@
       <c r="G32" s="158"/>
       <c r="H32" s="163"/>
     </row>
-    <row r="33" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="118" t="s">
         <v>528</v>
       </c>
-      <c r="D33" s="164"/>
+      <c r="D33" s="155"/>
       <c r="E33" s="4">
         <v>10</v>
       </c>
@@ -8946,14 +8911,14 @@
       <c r="G33" s="158"/>
       <c r="H33" s="163"/>
     </row>
-    <row r="34" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="118" t="s">
         <v>529</v>
       </c>
-      <c r="D34" s="165"/>
+      <c r="D34" s="155"/>
       <c r="E34" s="4">
         <v>10</v>
       </c>
@@ -8961,14 +8926,14 @@
       <c r="G34" s="158"/>
       <c r="H34" s="163"/>
     </row>
-    <row r="35" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="118" t="s">
         <v>530</v>
       </c>
-      <c r="D35" s="166"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="4">
         <v>10</v>
       </c>
@@ -8976,12 +8941,12 @@
       <c r="G35" s="158"/>
       <c r="H35" s="163"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="120"/>
-      <c r="D36" s="155">
+      <c r="D36" s="188">
         <f>SUM(D28:D35)</f>
         <v>0</v>
       </c>
@@ -8996,20 +8961,20 @@
       <c r="G36" s="121"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="D37" s="156"/>
       <c r="E37" s="4"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="167"/>
+      <c r="G37" s="164"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="122"/>
-      <c r="D38" s="156" t="s">
+      <c r="D38" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -9019,7 +8984,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
         <v>12</v>
       </c>
@@ -9034,7 +8999,7 @@
       <c r="G39" s="123"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="15" t="s">
         <v>13</v>
       </c>
@@ -9049,14 +9014,14 @@
       <c r="G40" s="157"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="118" t="s">
         <v>533</v>
       </c>
-      <c r="D41" s="164"/>
+      <c r="D41" s="155"/>
       <c r="E41" s="4">
         <v>10</v>
       </c>
@@ -9064,14 +9029,14 @@
       <c r="G41" s="157"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="118" t="s">
         <v>534</v>
       </c>
-      <c r="D42" s="165"/>
+      <c r="D42" s="155"/>
       <c r="E42" s="4">
         <v>10</v>
       </c>
@@ -9079,12 +9044,12 @@
       <c r="G42" s="158"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="120"/>
-      <c r="D43" s="168">
+      <c r="D43" s="165">
         <f>SUM(D39:D42)</f>
         <v>0</v>
       </c>
@@ -9099,20 +9064,20 @@
       <c r="G43" s="121"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="D44" s="156"/>
       <c r="E44" s="4"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="167"/>
+      <c r="G44" s="164"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="122"/>
-      <c r="D45" s="156" t="s">
+      <c r="D45" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -9122,7 +9087,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>12</v>
       </c>
@@ -9137,7 +9102,7 @@
       <c r="G46" s="123"/>
       <c r="H46" s="62"/>
     </row>
-    <row r="47" spans="2:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>13</v>
       </c>
@@ -9152,7 +9117,7 @@
       <c r="G47" s="123"/>
       <c r="H47" s="62"/>
     </row>
-    <row r="48" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>14</v>
       </c>
@@ -9167,7 +9132,7 @@
       <c r="G48" s="141"/>
       <c r="H48" s="62"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
@@ -9187,19 +9152,19 @@
       <c r="G49" s="121"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="167"/>
+      <c r="G50" s="164"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="122"/>
-      <c r="D51" s="168" t="s">
+      <c r="D51" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -9209,7 +9174,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
         <v>12</v>
       </c>
@@ -9224,7 +9189,7 @@
       <c r="G52" s="131"/>
       <c r="H52" s="67"/>
     </row>
-    <row r="53" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>13</v>
       </c>
@@ -9239,7 +9204,7 @@
       <c r="G53" s="131"/>
       <c r="H53" s="67"/>
     </row>
-    <row r="54" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
         <v>14</v>
       </c>
@@ -9254,7 +9219,7 @@
       <c r="G54" s="131"/>
       <c r="H54" s="67"/>
     </row>
-    <row r="55" spans="2:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
         <v>15</v>
       </c>
@@ -9269,7 +9234,7 @@
       <c r="G55" s="131"/>
       <c r="H55" s="67"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -9289,20 +9254,20 @@
       <c r="G56" s="121"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
-      <c r="D57" s="169"/>
+      <c r="D57" s="166"/>
       <c r="E57" s="4"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="167"/>
+      <c r="G57" s="164"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C58" s="122"/>
-      <c r="D58" s="168" t="s">
+      <c r="D58" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -9312,7 +9277,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>12</v>
       </c>
@@ -9327,7 +9292,7 @@
       <c r="G59" s="131"/>
       <c r="H59" s="67"/>
     </row>
-    <row r="60" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
         <v>13</v>
       </c>
@@ -9342,7 +9307,7 @@
       <c r="G60" s="131"/>
       <c r="H60" s="67"/>
     </row>
-    <row r="61" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
         <v>14</v>
       </c>
@@ -9357,12 +9322,12 @@
       <c r="G61" s="131"/>
       <c r="H61" s="67"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="120"/>
-      <c r="D62" s="155">
+      <c r="D62" s="188">
         <f>SUM(D59:D61)</f>
         <v>0</v>
       </c>
@@ -9377,20 +9342,20 @@
       <c r="G62" s="121"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="D63" s="156"/>
       <c r="E63" s="4"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="167"/>
+      <c r="G63" s="164"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="122"/>
-      <c r="D64" s="156" t="s">
+      <c r="D64" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -9400,7 +9365,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
         <v>12</v>
       </c>
@@ -9415,14 +9380,14 @@
       <c r="G65" s="123"/>
       <c r="H65" s="70"/>
     </row>
-    <row r="66" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="129" t="s">
         <v>546</v>
       </c>
-      <c r="D66" s="164"/>
+      <c r="D66" s="155"/>
       <c r="E66" s="4">
         <v>10</v>
       </c>
@@ -9430,14 +9395,14 @@
       <c r="G66" s="123"/>
       <c r="H66" s="70"/>
     </row>
-    <row r="67" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="129" t="s">
         <v>547</v>
       </c>
-      <c r="D67" s="170"/>
+      <c r="D67" s="155"/>
       <c r="E67" s="4">
         <v>10</v>
       </c>
@@ -9445,14 +9410,14 @@
       <c r="G67" s="123"/>
       <c r="H67" s="70"/>
     </row>
-    <row r="68" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="129" t="s">
         <v>548</v>
       </c>
-      <c r="D68" s="166"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="4">
         <v>10</v>
       </c>
@@ -9460,7 +9425,7 @@
       <c r="G68" s="123"/>
       <c r="H68" s="70"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
@@ -9480,20 +9445,20 @@
       <c r="G69" s="121"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="D70" s="156"/>
       <c r="E70" s="4"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="167"/>
+      <c r="G70" s="164"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C71" s="122"/>
-      <c r="D71" s="156" t="s">
+      <c r="D71" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -9503,7 +9468,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="15" t="s">
         <v>12</v>
       </c>
@@ -9515,10 +9480,10 @@
         <v>10</v>
       </c>
       <c r="F72" s="9"/>
-      <c r="G72" s="171"/>
+      <c r="G72" s="167"/>
       <c r="H72" s="70"/>
     </row>
-    <row r="73" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="15" t="s">
         <v>13</v>
       </c>
@@ -9533,7 +9498,7 @@
       <c r="G73" s="157"/>
       <c r="H73" s="70"/>
     </row>
-    <row r="74" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
         <v>14</v>
       </c>
@@ -9548,7 +9513,7 @@
       <c r="G74" s="123"/>
       <c r="H74" s="70"/>
     </row>
-    <row r="75" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
         <v>15</v>
       </c>
@@ -9563,7 +9528,7 @@
       <c r="G75" s="123"/>
       <c r="H75" s="70"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
@@ -9583,20 +9548,20 @@
       <c r="G76" s="121"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
-      <c r="D77" s="169"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="4"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="167"/>
+      <c r="G77" s="164"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C78" s="122"/>
-      <c r="D78" s="168" t="s">
+      <c r="D78" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -9606,7 +9571,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
         <v>12</v>
       </c>
@@ -9621,7 +9586,7 @@
       <c r="G79" s="135"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
         <v>13</v>
       </c>
@@ -9636,7 +9601,7 @@
       <c r="G80" s="123"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
         <v>14</v>
       </c>
@@ -9651,7 +9616,7 @@
       <c r="G81" s="123"/>
       <c r="H81" s="62"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>2</v>
       </c>
@@ -9671,20 +9636,20 @@
       <c r="G82" s="121"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="D83" s="156"/>
       <c r="E83" s="4"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="167"/>
+      <c r="G83" s="164"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="122"/>
-      <c r="D84" s="156" t="s">
+      <c r="D84" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -9694,7 +9659,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
         <v>12</v>
       </c>
@@ -9709,7 +9674,7 @@
       <c r="G85" s="123"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
         <v>13</v>
       </c>
@@ -9724,14 +9689,14 @@
       <c r="G86" s="123"/>
       <c r="H86" s="67"/>
     </row>
-    <row r="87" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="118" t="s">
         <v>558</v>
       </c>
-      <c r="D87" s="164"/>
+      <c r="D87" s="155"/>
       <c r="E87" s="4">
         <v>10</v>
       </c>
@@ -9739,14 +9704,14 @@
       <c r="G87" s="123"/>
       <c r="H87" s="62"/>
     </row>
-    <row r="88" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C88" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="D88" s="165"/>
+      <c r="D88" s="155"/>
       <c r="E88" s="4">
         <v>10</v>
       </c>
@@ -9754,14 +9719,14 @@
       <c r="G88" s="123"/>
       <c r="H88" s="123"/>
     </row>
-    <row r="89" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="129" t="s">
         <v>560</v>
       </c>
-      <c r="D89" s="166"/>
+      <c r="D89" s="155"/>
       <c r="E89" s="4">
         <v>10</v>
       </c>
@@ -9769,7 +9734,7 @@
       <c r="G89" s="123"/>
       <c r="H89" s="67"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>2</v>
       </c>
@@ -9789,20 +9754,20 @@
       <c r="G90" s="121"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="D91" s="156"/>
       <c r="E91" s="4"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="167"/>
+      <c r="G91" s="164"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C92" s="122"/>
-      <c r="D92" s="156" t="s">
+      <c r="D92" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -9812,7 +9777,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
         <v>12</v>
       </c>
@@ -9827,7 +9792,7 @@
       <c r="G93" s="134"/>
       <c r="H93" s="67"/>
     </row>
-    <row r="94" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>13</v>
       </c>
@@ -9842,7 +9807,7 @@
       <c r="G94" s="123"/>
       <c r="H94" s="67"/>
     </row>
-    <row r="95" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
         <v>14</v>
       </c>
@@ -9857,7 +9822,7 @@
       <c r="G95" s="123"/>
       <c r="H95" s="67"/>
     </row>
-    <row r="96" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
         <v>15</v>
       </c>
@@ -9872,7 +9837,7 @@
       <c r="G96" s="123"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>2</v>
       </c>
@@ -9892,20 +9857,22 @@
       <c r="G97" s="121"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="D98" s="156"/>
       <c r="E98" s="4"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="167"/>
+      <c r="G98" s="164"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C99" s="122"/>
-      <c r="D99" s="172"/>
+      <c r="D99" s="186" t="s">
+        <v>0</v>
+      </c>
       <c r="E99" s="3" t="s">
         <v>1</v>
       </c>
@@ -9913,14 +9880,14 @@
       <c r="G99" s="7"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="118" t="s">
         <v>565</v>
       </c>
-      <c r="D100" s="165"/>
+      <c r="D100" s="155"/>
       <c r="E100" s="4">
         <v>10</v>
       </c>
@@ -9928,14 +9895,14 @@
       <c r="G100" s="123"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C101" s="118" t="s">
         <v>566</v>
       </c>
-      <c r="D101" s="166"/>
+      <c r="D101" s="155"/>
       <c r="E101" s="4">
         <v>10</v>
       </c>
@@ -9943,7 +9910,7 @@
       <c r="G101" s="123"/>
       <c r="H101" s="123"/>
     </row>
-    <row r="102" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
         <v>14</v>
       </c>
@@ -9958,7 +9925,7 @@
       <c r="G102" s="123"/>
       <c r="H102" s="62"/>
     </row>
-    <row r="103" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
         <v>15</v>
       </c>
@@ -9973,7 +9940,7 @@
       <c r="G103" s="123"/>
       <c r="H103" s="70"/>
     </row>
-    <row r="104" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
         <v>16</v>
       </c>
@@ -9988,7 +9955,7 @@
       <c r="G104" s="123"/>
       <c r="H104" s="70"/>
     </row>
-    <row r="105" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="15" t="s">
         <v>17</v>
       </c>
@@ -10003,7 +9970,7 @@
       <c r="G105" s="123"/>
       <c r="H105" s="70"/>
     </row>
-    <row r="106" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="15" t="s">
         <v>18</v>
       </c>
@@ -10016,9 +9983,9 @@
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="157"/>
-      <c r="H106" s="173"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H106" s="169"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
         <v>2</v>
       </c>
@@ -10038,20 +10005,20 @@
       <c r="G107" s="121"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="D108" s="156"/>
       <c r="E108" s="4"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="167"/>
+      <c r="G108" s="164"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C109" s="122"/>
-      <c r="D109" s="156" t="s">
+      <c r="D109" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -10061,82 +10028,82 @@
       <c r="G109" s="7"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="118" t="s">
         <v>572</v>
       </c>
-      <c r="D110" s="164"/>
+      <c r="D110" s="155"/>
       <c r="E110" s="4">
         <v>10</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="174"/>
+      <c r="G110" s="170"/>
       <c r="H110" s="67"/>
     </row>
-    <row r="111" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="118" t="s">
         <v>573</v>
       </c>
-      <c r="D111" s="165"/>
+      <c r="D111" s="155"/>
       <c r="E111" s="4">
         <v>10</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="175"/>
+      <c r="G111" s="171"/>
       <c r="H111" s="70"/>
     </row>
-    <row r="112" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C112" s="118" t="s">
         <v>574</v>
       </c>
-      <c r="D112" s="166"/>
+      <c r="D112" s="155"/>
       <c r="E112" s="4">
         <v>10</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="175"/>
+      <c r="G112" s="171"/>
       <c r="H112" s="70"/>
     </row>
-    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="118" t="s">
         <v>575</v>
       </c>
-      <c r="D113" s="176"/>
+      <c r="D113" s="155"/>
       <c r="E113" s="4">
         <v>10</v>
       </c>
       <c r="F113" s="9"/>
-      <c r="G113" s="174"/>
+      <c r="G113" s="170"/>
       <c r="H113" s="67"/>
     </row>
-    <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="129" t="s">
         <v>576</v>
       </c>
-      <c r="D114" s="176"/>
+      <c r="D114" s="155"/>
       <c r="E114" s="4">
         <v>10</v>
       </c>
       <c r="F114" s="9"/>
-      <c r="G114" s="174"/>
-      <c r="H114" s="177"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G114" s="170"/>
+      <c r="H114" s="172"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
         <v>2</v>
       </c>
@@ -10156,20 +10123,20 @@
       <c r="G115" s="121"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="D116" s="156"/>
       <c r="E116" s="4"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="167"/>
+      <c r="G116" s="164"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C117" s="122"/>
-      <c r="D117" s="159" t="s">
+      <c r="D117" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -10179,36 +10146,37 @@
       <c r="G117" s="7"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="118" t="s">
         <v>577</v>
       </c>
+      <c r="D118" s="155"/>
       <c r="E118" s="4">
         <v>10</v>
       </c>
       <c r="F118" s="9"/>
-      <c r="G118" s="178"/>
+      <c r="G118" s="173"/>
       <c r="H118" s="70"/>
     </row>
-    <row r="119" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="118" t="s">
         <v>578</v>
       </c>
-      <c r="D119" s="168"/>
+      <c r="D119" s="155"/>
       <c r="E119" s="4">
         <v>10</v>
       </c>
       <c r="F119" s="9"/>
-      <c r="G119" s="171"/>
+      <c r="G119" s="167"/>
       <c r="H119" s="70"/>
     </row>
-    <row r="120" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
         <v>14</v>
       </c>
@@ -10220,10 +10188,10 @@
         <v>10</v>
       </c>
       <c r="F120" s="9"/>
-      <c r="G120" s="171"/>
+      <c r="G120" s="167"/>
       <c r="H120" s="70"/>
     </row>
-    <row r="121" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
         <v>15</v>
       </c>
@@ -10235,10 +10203,10 @@
         <v>10</v>
       </c>
       <c r="F121" s="9"/>
-      <c r="G121" s="171"/>
+      <c r="G121" s="167"/>
       <c r="H121" s="70"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>2</v>
       </c>
@@ -10258,20 +10226,20 @@
       <c r="G122" s="121"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="D123" s="156"/>
       <c r="E123" s="4"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="167"/>
+      <c r="G123" s="164"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="122"/>
-      <c r="D124" s="172" t="s">
+      <c r="D124" s="187" t="s">
         <v>0</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -10281,14 +10249,14 @@
       <c r="G124" s="7"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="2:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="118" t="s">
         <v>581</v>
       </c>
-      <c r="D125" s="179"/>
+      <c r="D125" s="174"/>
       <c r="E125" s="4">
         <v>10</v>
       </c>
@@ -10296,14 +10264,14 @@
       <c r="G125" s="123"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C126" s="118" t="s">
         <v>582</v>
       </c>
-      <c r="D126" s="180"/>
+      <c r="D126" s="174"/>
       <c r="E126" s="4">
         <v>10</v>
       </c>
@@ -10311,14 +10279,14 @@
       <c r="G126" s="123"/>
       <c r="H126" s="67"/>
     </row>
-    <row r="127" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="129" t="s">
         <v>583</v>
       </c>
-      <c r="D127" s="181"/>
+      <c r="D127" s="174"/>
       <c r="E127" s="4">
         <v>10</v>
       </c>
@@ -10326,12 +10294,12 @@
       <c r="G127" s="123"/>
       <c r="H127" s="158"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="120"/>
-      <c r="D128" s="182">
+      <c r="D128" s="175">
         <f>SUM(D125:D127)</f>
         <v>0</v>
       </c>
@@ -10346,20 +10314,22 @@
       <c r="G128" s="121"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
-      <c r="D129" s="183"/>
+      <c r="D129" s="176"/>
       <c r="E129" s="4"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="167"/>
+      <c r="G129" s="164"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C130" s="122"/>
-      <c r="D130" s="184"/>
+      <c r="D130" s="165" t="s">
+        <v>0</v>
+      </c>
       <c r="E130" s="3" t="s">
         <v>1</v>
       </c>
@@ -10367,14 +10337,14 @@
       <c r="G130" s="7"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="129" t="s">
         <v>584</v>
       </c>
-      <c r="D131" s="165"/>
+      <c r="D131" s="155"/>
       <c r="E131" s="4">
         <v>10</v>
       </c>
@@ -10382,14 +10352,14 @@
       <c r="G131" s="123"/>
       <c r="H131" s="67"/>
     </row>
-    <row r="132" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C132" s="129" t="s">
         <v>585</v>
       </c>
-      <c r="D132" s="166"/>
+      <c r="D132" s="155"/>
       <c r="E132" s="4">
         <v>10</v>
       </c>
@@ -10397,7 +10367,7 @@
       <c r="G132" s="123"/>
       <c r="H132" s="67"/>
     </row>
-    <row r="133" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
         <v>14</v>
       </c>
@@ -10412,7 +10382,7 @@
       <c r="G133" s="123"/>
       <c r="H133" s="67"/>
     </row>
-    <row r="134" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="15" t="s">
         <v>15</v>
       </c>
@@ -10425,9 +10395,9 @@
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="123"/>
-      <c r="H134" s="177"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H134" s="172"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
         <v>2</v>
       </c>
@@ -10447,19 +10417,19 @@
       <c r="G135" s="121"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="167"/>
+      <c r="G136" s="164"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C137" s="122"/>
-      <c r="D137" s="168" t="s">
+      <c r="D137" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -10469,7 +10439,7 @@
       <c r="G137" s="7"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
         <v>12</v>
       </c>
@@ -10484,7 +10454,7 @@
       <c r="G138" s="123"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
         <v>13</v>
       </c>
@@ -10499,7 +10469,7 @@
       <c r="G139" s="123"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
         <v>2</v>
       </c>
@@ -10519,22 +10489,22 @@
       <c r="G140" s="121"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="D141" s="156" t="s">
         <v>590</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="167"/>
+      <c r="G141" s="164"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C142" s="122"/>
-      <c r="D142" s="156" t="s">
+      <c r="D142" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -10544,14 +10514,14 @@
       <c r="G142" s="7"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="118" t="s">
         <v>591</v>
       </c>
-      <c r="D143" s="176"/>
+      <c r="D143" s="155"/>
       <c r="E143" s="4">
         <v>10</v>
       </c>
@@ -10559,14 +10529,14 @@
       <c r="G143" s="141"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C144" s="118" t="s">
         <v>592</v>
       </c>
-      <c r="D144" s="176"/>
+      <c r="D144" s="155"/>
       <c r="E144" s="4">
         <v>10</v>
       </c>
@@ -10574,14 +10544,14 @@
       <c r="G144" s="123"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="118" t="s">
         <v>593</v>
       </c>
-      <c r="D145" s="164"/>
+      <c r="D145" s="155"/>
       <c r="E145" s="4">
         <v>10</v>
       </c>
@@ -10589,14 +10559,14 @@
       <c r="G145" s="141"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B146" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C146" s="118" t="s">
         <v>594</v>
       </c>
-      <c r="D146" s="165"/>
+      <c r="D146" s="155"/>
       <c r="E146" s="4">
         <v>10</v>
       </c>
@@ -10604,14 +10574,14 @@
       <c r="G146" s="141"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C147" s="118" t="s">
         <v>595</v>
       </c>
-      <c r="D147" s="166"/>
+      <c r="D147" s="155"/>
       <c r="E147" s="4">
         <v>10</v>
       </c>
@@ -10619,7 +10589,7 @@
       <c r="G147" s="123"/>
       <c r="H147" s="62"/>
     </row>
-    <row r="148" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="15" t="s">
         <v>17</v>
       </c>
@@ -10634,7 +10604,7 @@
       <c r="G148" s="123"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="15" t="s">
         <v>18</v>
       </c>
@@ -10649,7 +10619,7 @@
       <c r="G149" s="141"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="15" t="s">
         <v>19</v>
       </c>
@@ -10664,7 +10634,7 @@
       <c r="G150" s="123"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
         <v>2</v>
       </c>
@@ -10684,20 +10654,20 @@
       <c r="G151" s="121"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
       <c r="D152" s="156"/>
       <c r="E152" s="4"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="167"/>
+      <c r="G152" s="164"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C153" s="122"/>
-      <c r="D153" s="172" t="s">
+      <c r="D153" s="187" t="s">
         <v>0</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -10707,14 +10677,14 @@
       <c r="G153" s="7"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B154" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="118" t="s">
         <v>599</v>
       </c>
-      <c r="D154" s="165"/>
+      <c r="D154" s="155"/>
       <c r="E154" s="4">
         <v>10</v>
       </c>
@@ -10722,14 +10692,14 @@
       <c r="G154" s="123"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C155" s="118" t="s">
         <v>600</v>
       </c>
-      <c r="D155" s="166"/>
+      <c r="D155" s="155"/>
       <c r="E155" s="4">
         <v>10</v>
       </c>
@@ -10737,7 +10707,7 @@
       <c r="G155" s="123"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B156" s="15" t="s">
         <v>14</v>
       </c>
@@ -10752,7 +10722,7 @@
       <c r="G156" s="123"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="15" t="s">
         <v>15</v>
       </c>
@@ -10767,7 +10737,7 @@
       <c r="G157" s="123"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="2:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B158" s="15" t="s">
         <v>16</v>
       </c>
@@ -10782,7 +10752,7 @@
       <c r="G158" s="123"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
         <v>2</v>
       </c>
@@ -10802,19 +10772,19 @@
       <c r="G159" s="121"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="167"/>
+      <c r="G160" s="164"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C161" s="122"/>
-      <c r="D161" s="168" t="s">
+      <c r="D161" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -10824,11 +10794,11 @@
       <c r="G161" s="7"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B162" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="185" t="s">
+      <c r="C162" s="177" t="s">
         <v>604</v>
       </c>
       <c r="D162" s="155"/>
@@ -10839,11 +10809,11 @@
       <c r="G162" s="123"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C163" s="185" t="s">
+      <c r="C163" s="177" t="s">
         <v>605</v>
       </c>
       <c r="D163" s="155"/>
@@ -10854,7 +10824,7 @@
       <c r="G163" s="123"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
         <v>2</v>
       </c>
@@ -10874,22 +10844,22 @@
       <c r="G164" s="121"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="D165" s="156" t="s">
         <v>590</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="167"/>
+      <c r="G165" s="164"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C166" s="122"/>
-      <c r="D166" s="156" t="s">
+      <c r="D166" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -10899,7 +10869,7 @@
       <c r="G166" s="7"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B167" s="15" t="s">
         <v>12</v>
       </c>
@@ -10914,14 +10884,14 @@
       <c r="G167" s="123"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C168" s="148" t="s">
         <v>607</v>
       </c>
-      <c r="D168" s="164"/>
+      <c r="D168" s="155"/>
       <c r="E168" s="4">
         <v>10</v>
       </c>
@@ -10929,14 +10899,14 @@
       <c r="G168" s="123"/>
       <c r="H168" s="62"/>
     </row>
-    <row r="169" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B169" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C169" s="148" t="s">
         <v>608</v>
       </c>
-      <c r="D169" s="165"/>
+      <c r="D169" s="155"/>
       <c r="E169" s="4">
         <v>10</v>
       </c>
@@ -10944,14 +10914,14 @@
       <c r="G169" s="123"/>
       <c r="H169" s="67"/>
     </row>
-    <row r="170" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B170" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C170" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="D170" s="166"/>
+      <c r="D170" s="155"/>
       <c r="E170" s="4">
         <v>10</v>
       </c>
@@ -10959,7 +10929,7 @@
       <c r="G170" s="123"/>
       <c r="H170" s="67"/>
     </row>
-    <row r="171" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B171" s="15" t="s">
         <v>16</v>
       </c>
@@ -10974,7 +10944,7 @@
       <c r="G171" s="123"/>
       <c r="H171" s="67"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="4" t="s">
         <v>2</v>
       </c>
@@ -10994,22 +10964,22 @@
       <c r="G172" s="121"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="D173" s="156" t="s">
         <v>590</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="167"/>
+      <c r="G173" s="164"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C174" s="122"/>
-      <c r="D174" s="156" t="s">
+      <c r="D174" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -11019,7 +10989,7 @@
       <c r="G174" s="7"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B175" s="15" t="s">
         <v>12</v>
       </c>
@@ -11034,14 +11004,14 @@
       <c r="G175" s="131"/>
       <c r="H175" s="146"/>
     </row>
-    <row r="176" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C176" s="118" t="s">
         <v>612</v>
       </c>
-      <c r="D176" s="164"/>
+      <c r="D176" s="155"/>
       <c r="E176" s="4">
         <v>10</v>
       </c>
@@ -11049,14 +11019,14 @@
       <c r="G176" s="131"/>
       <c r="H176" s="146"/>
     </row>
-    <row r="177" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="D177" s="165"/>
+      <c r="D177" s="155"/>
       <c r="E177" s="4">
         <v>10</v>
       </c>
@@ -11064,14 +11034,14 @@
       <c r="G177" s="131"/>
       <c r="H177" s="146"/>
     </row>
-    <row r="178" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C178" s="129" t="s">
         <v>614</v>
       </c>
-      <c r="D178" s="166"/>
+      <c r="D178" s="155"/>
       <c r="E178" s="4">
         <v>10</v>
       </c>
@@ -11079,7 +11049,7 @@
       <c r="G178" s="131"/>
       <c r="H178" s="67"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="4" t="s">
         <v>2</v>
       </c>
@@ -11099,7 +11069,7 @@
       <c r="G179" s="121"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
       <c r="C180" s="1"/>
       <c r="D180" s="156"/>
@@ -11108,12 +11078,14 @@
       <c r="G180" s="121"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="156"/>
+      <c r="D181" s="165" t="s">
+        <v>0</v>
+      </c>
       <c r="E181" s="3" t="s">
         <v>1</v>
       </c>
@@ -11121,7 +11093,7 @@
       <c r="G181" s="7"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="15" t="s">
         <v>12</v>
       </c>
@@ -11136,7 +11108,7 @@
       <c r="G182" s="123"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="15" t="s">
         <v>13</v>
       </c>
@@ -11151,11 +11123,11 @@
       <c r="G183" s="123"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C184" s="186" t="s">
+      <c r="C184" s="178" t="s">
         <v>617</v>
       </c>
       <c r="D184" s="155"/>
@@ -11166,7 +11138,7 @@
       <c r="G184" s="123"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="4" t="s">
         <v>2</v>
       </c>
@@ -11186,20 +11158,20 @@
       <c r="G185" s="121"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
       <c r="C186" s="1"/>
       <c r="E186" s="4"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="167"/>
+      <c r="G186" s="164"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C187" s="122"/>
-      <c r="D187" s="168" t="s">
+      <c r="D187" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -11209,7 +11181,7 @@
       <c r="G187" s="7"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B188" s="15" t="s">
         <v>12</v>
       </c>
@@ -11224,7 +11196,7 @@
       <c r="G188" s="123"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B189" s="15" t="s">
         <v>13</v>
       </c>
@@ -11239,7 +11211,7 @@
       <c r="G189" s="123"/>
       <c r="H189" s="146"/>
     </row>
-    <row r="190" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B190" s="15" t="s">
         <v>14</v>
       </c>
@@ -11254,7 +11226,7 @@
       <c r="G190" s="123"/>
       <c r="H190" s="146"/>
     </row>
-    <row r="191" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B191" s="15" t="s">
         <v>15</v>
       </c>
@@ -11269,7 +11241,7 @@
       <c r="G191" s="123"/>
       <c r="H191" s="145"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="4" t="s">
         <v>2</v>
       </c>
@@ -11289,19 +11261,22 @@
       <c r="G192" s="121"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
       <c r="D193" s="159"/>
       <c r="E193" s="4"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="167"/>
+      <c r="G193" s="164"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C194" s="122"/>
+      <c r="D194" s="156" t="s">
+        <v>0</v>
+      </c>
       <c r="E194" s="3" t="s">
         <v>1</v>
       </c>
@@ -11309,14 +11284,14 @@
       <c r="G194" s="7"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C195" s="186" t="s">
+      <c r="C195" s="178" t="s">
         <v>622</v>
       </c>
-      <c r="D195" s="166"/>
+      <c r="D195" s="155"/>
       <c r="E195" s="4">
         <v>10</v>
       </c>
@@ -11324,11 +11299,11 @@
       <c r="G195" s="123"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C196" s="186" t="s">
+      <c r="C196" s="178" t="s">
         <v>623</v>
       </c>
       <c r="D196" s="155"/>
@@ -11339,11 +11314,11 @@
       <c r="G196" s="123"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C197" s="186" t="s">
+      <c r="C197" s="178" t="s">
         <v>624</v>
       </c>
       <c r="D197" s="155"/>
@@ -11354,11 +11329,11 @@
       <c r="G197" s="123"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="2:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C198" s="186" t="s">
+      <c r="C198" s="178" t="s">
         <v>625</v>
       </c>
       <c r="D198" s="155"/>
@@ -11369,14 +11344,14 @@
       <c r="G198" s="123"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C199" s="186" t="s">
+      <c r="C199" s="178" t="s">
         <v>626</v>
       </c>
-      <c r="D199" s="164"/>
+      <c r="D199" s="155"/>
       <c r="E199" s="4">
         <v>10</v>
       </c>
@@ -11384,7 +11359,7 @@
       <c r="G199" s="123"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="4" t="s">
         <v>2</v>
       </c>
@@ -11404,20 +11379,20 @@
       <c r="G200" s="121"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
-      <c r="D201" s="168"/>
+      <c r="D201" s="165"/>
       <c r="E201" s="4"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="167"/>
+      <c r="G201" s="164"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C202" s="122"/>
-      <c r="D202" s="156" t="s">
+      <c r="D202" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E202" s="3" t="s">
@@ -11427,7 +11402,7 @@
       <c r="G202" s="7"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B203" s="15" t="s">
         <v>12</v>
       </c>
@@ -11442,7 +11417,7 @@
       <c r="G203" s="123"/>
       <c r="H203" s="70"/>
     </row>
-    <row r="204" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="15" t="s">
         <v>13</v>
       </c>
@@ -11457,7 +11432,7 @@
       <c r="G204" s="123"/>
       <c r="H204" s="67"/>
     </row>
-    <row r="205" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B205" s="15" t="s">
         <v>14</v>
       </c>
@@ -11472,14 +11447,14 @@
       <c r="G205" s="123"/>
       <c r="H205" s="67"/>
     </row>
-    <row r="206" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C206" s="129" t="s">
         <v>630</v>
       </c>
-      <c r="D206" s="164"/>
+      <c r="D206" s="155"/>
       <c r="E206" s="4">
         <v>10</v>
       </c>
@@ -11487,14 +11462,14 @@
       <c r="G206" s="123"/>
       <c r="H206" s="67"/>
     </row>
-    <row r="207" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B207" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C207" s="129" t="s">
         <v>631</v>
       </c>
-      <c r="D207" s="165"/>
+      <c r="D207" s="155"/>
       <c r="E207" s="4">
         <v>10</v>
       </c>
@@ -11502,14 +11477,14 @@
       <c r="G207" s="123"/>
       <c r="H207" s="70"/>
     </row>
-    <row r="208" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B208" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="129" t="s">
         <v>632</v>
       </c>
-      <c r="D208" s="166"/>
+      <c r="D208" s="155"/>
       <c r="E208" s="4">
         <v>10</v>
       </c>
@@ -11517,7 +11492,7 @@
       <c r="G208" s="123"/>
       <c r="H208" s="70"/>
     </row>
-    <row r="209" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B209" s="15" t="s">
         <v>18</v>
       </c>
@@ -11532,7 +11507,7 @@
       <c r="G209" s="123"/>
       <c r="H209" s="67"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="4" t="s">
         <v>2</v>
       </c>
@@ -11552,22 +11527,22 @@
       <c r="G210" s="121"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
       <c r="D211" s="156" t="s">
         <v>590</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="167"/>
+      <c r="G211" s="164"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C212" s="122"/>
-      <c r="D212" s="159" t="s">
+      <c r="D212" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E212" s="3" t="s">
@@ -11577,14 +11552,14 @@
       <c r="G212" s="7"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B213" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C213" s="118" t="s">
         <v>634</v>
       </c>
-      <c r="D213" s="165"/>
+      <c r="D213" s="155"/>
       <c r="E213" s="4">
         <v>10</v>
       </c>
@@ -11592,14 +11567,14 @@
       <c r="G213" s="123"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B214" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C214" s="118" t="s">
         <v>635</v>
       </c>
-      <c r="D214" s="166"/>
+      <c r="D214" s="155"/>
       <c r="E214" s="4">
         <v>10</v>
       </c>
@@ -11607,7 +11582,7 @@
       <c r="G214" s="123"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B215" s="15" t="s">
         <v>14</v>
       </c>
@@ -11622,7 +11597,7 @@
       <c r="G215" s="123"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="2:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B216" s="15" t="s">
         <v>15</v>
       </c>
@@ -11637,7 +11612,7 @@
       <c r="G216" s="67"/>
       <c r="H216" s="67"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="4" t="s">
         <v>2</v>
       </c>
@@ -11657,20 +11632,20 @@
       <c r="G217" s="121"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
-      <c r="D218" s="172"/>
+      <c r="D218" s="168"/>
       <c r="E218" s="4"/>
       <c r="F218" s="10"/>
-      <c r="G218" s="167"/>
+      <c r="G218" s="164"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C219" s="122"/>
-      <c r="D219" s="5" t="s">
+      <c r="D219" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E219" s="3" t="s">
@@ -11680,14 +11655,14 @@
       <c r="G219" s="7"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B220" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C220" s="129" t="s">
         <v>638</v>
       </c>
-      <c r="D220" s="166"/>
+      <c r="D220" s="155"/>
       <c r="E220" s="4">
         <v>10</v>
       </c>
@@ -11695,7 +11670,7 @@
       <c r="G220" s="123"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B221" s="15" t="s">
         <v>13</v>
       </c>
@@ -11710,7 +11685,7 @@
       <c r="G221" s="123"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B222" s="15" t="s">
         <v>14</v>
       </c>
@@ -11725,7 +11700,7 @@
       <c r="G222" s="123"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B223" s="15" t="s">
         <v>15</v>
       </c>
@@ -11740,7 +11715,7 @@
       <c r="G223" s="123"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B224" s="15" t="s">
         <v>16</v>
       </c>
@@ -11755,7 +11730,7 @@
       <c r="G224" s="123"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="4" t="s">
         <v>2</v>
       </c>
@@ -11775,20 +11750,20 @@
       <c r="G225" s="121"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
       <c r="D226" s="156"/>
       <c r="E226" s="4"/>
       <c r="F226" s="10"/>
-      <c r="G226" s="167"/>
+      <c r="G226" s="164"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C227" s="122"/>
-      <c r="D227" s="159" t="s">
+      <c r="D227" s="165" t="s">
         <v>0</v>
       </c>
       <c r="E227" s="3" t="s">
@@ -11798,14 +11773,14 @@
       <c r="G227" s="7"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B228" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C228" s="185" t="s">
+      <c r="C228" s="177" t="s">
         <v>643</v>
       </c>
-      <c r="D228" s="165"/>
+      <c r="D228" s="155"/>
       <c r="E228" s="4">
         <v>10</v>
       </c>
@@ -11813,14 +11788,14 @@
       <c r="G228" s="123"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B229" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C229" s="185" t="s">
+      <c r="C229" s="177" t="s">
         <v>644</v>
       </c>
-      <c r="D229" s="166"/>
+      <c r="D229" s="155"/>
       <c r="E229" s="4">
         <v>10</v>
       </c>
@@ -11828,11 +11803,11 @@
       <c r="G229" s="123"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B230" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C230" s="185" t="s">
+      <c r="C230" s="177" t="s">
         <v>645</v>
       </c>
       <c r="D230" s="155"/>
@@ -11843,7 +11818,7 @@
       <c r="G230" s="123"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="4" t="s">
         <v>2</v>
       </c>
@@ -11863,20 +11838,20 @@
       <c r="G231" s="121"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="4"/>
       <c r="D232" s="156"/>
       <c r="E232" s="4"/>
       <c r="F232" s="10"/>
-      <c r="G232" s="167"/>
+      <c r="G232" s="164"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C233" s="122"/>
-      <c r="D233" s="156" t="s">
+      <c r="D233" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -11886,14 +11861,14 @@
       <c r="G233" s="7"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B234" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C234" s="185" t="s">
+      <c r="C234" s="177" t="s">
         <v>646</v>
       </c>
-      <c r="D234" s="164"/>
+      <c r="D234" s="155"/>
       <c r="E234" s="4">
         <v>10</v>
       </c>
@@ -11901,14 +11876,14 @@
       <c r="G234" s="123"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B235" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C235" s="185" t="s">
+      <c r="C235" s="177" t="s">
         <v>647</v>
       </c>
-      <c r="D235" s="165"/>
+      <c r="D235" s="155"/>
       <c r="E235" s="4">
         <v>10</v>
       </c>
@@ -11916,14 +11891,14 @@
       <c r="G235" s="123"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B236" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C236" s="185" t="s">
+      <c r="C236" s="177" t="s">
         <v>648</v>
       </c>
-      <c r="D236" s="166"/>
+      <c r="D236" s="155"/>
       <c r="E236" s="4">
         <v>10</v>
       </c>
@@ -11931,11 +11906,11 @@
       <c r="G236" s="123"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B237" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C237" s="185" t="s">
+      <c r="C237" s="177" t="s">
         <v>649</v>
       </c>
       <c r="D237" s="155"/>
@@ -11946,7 +11921,7 @@
       <c r="G237" s="123"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="4" t="s">
         <v>2</v>
       </c>
@@ -11966,20 +11941,20 @@
       <c r="G238" s="121"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="4"/>
       <c r="D239" s="156"/>
       <c r="E239" s="4"/>
       <c r="F239" s="10"/>
-      <c r="G239" s="167"/>
+      <c r="G239" s="164"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C240" s="122"/>
-      <c r="D240" s="156" t="s">
+      <c r="D240" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -11989,14 +11964,14 @@
       <c r="G240" s="7"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B241" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="148" t="s">
         <v>650</v>
       </c>
-      <c r="D241" s="164"/>
+      <c r="D241" s="155"/>
       <c r="E241" s="4">
         <v>10</v>
       </c>
@@ -12004,14 +11979,14 @@
       <c r="G241" s="123"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B242" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C242" s="148" t="s">
         <v>651</v>
       </c>
-      <c r="D242" s="165"/>
+      <c r="D242" s="155"/>
       <c r="E242" s="4">
         <v>10</v>
       </c>
@@ -12019,14 +11994,14 @@
       <c r="G242" s="123"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B243" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C243" s="148" t="s">
         <v>652</v>
       </c>
-      <c r="D243" s="166"/>
+      <c r="D243" s="155"/>
       <c r="E243" s="4">
         <v>10</v>
       </c>
@@ -12034,7 +12009,7 @@
       <c r="G243" s="123"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B244" s="15" t="s">
         <v>15</v>
       </c>
@@ -12049,7 +12024,7 @@
       <c r="G244" s="123"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B245" s="15" t="s">
         <v>16</v>
       </c>
@@ -12064,7 +12039,7 @@
       <c r="G245" s="123"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="4" t="s">
         <v>2</v>
       </c>
@@ -12084,23 +12059,22 @@
       <c r="G246" s="121"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
       <c r="D247" s="156" t="s">
         <v>590</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="10"/>
-      <c r="G247" s="167"/>
+      <c r="G247" s="164"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C248" s="122"/>
-      <c r="D248" s="172">
-        <f>SUM(D244:D247)</f>
+      <c r="D248" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -12110,14 +12084,14 @@
       <c r="G248" s="7"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="2:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B249" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C249" s="118" t="s">
         <v>655</v>
       </c>
-      <c r="D249" s="165"/>
+      <c r="D249" s="155"/>
       <c r="E249" s="4">
         <v>10</v>
       </c>
@@ -12125,14 +12099,14 @@
       <c r="G249" s="123"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B250" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C250" s="118" t="s">
         <v>656</v>
       </c>
-      <c r="D250" s="166"/>
+      <c r="D250" s="155"/>
       <c r="E250" s="4">
         <v>10</v>
       </c>
@@ -12140,7 +12114,7 @@
       <c r="G250" s="123"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B251" s="15" t="s">
         <v>14</v>
       </c>
@@ -12155,7 +12129,7 @@
       <c r="G251" s="123"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="4" t="s">
         <v>2</v>
       </c>
@@ -12175,21 +12149,21 @@
       <c r="G252" s="121"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="156"/>
       <c r="E253" s="4"/>
       <c r="F253" s="10"/>
-      <c r="G253" s="167"/>
+      <c r="G253" s="164"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C254" s="3"/>
-      <c r="D254" s="156" t="s">
+      <c r="D254" s="186" t="s">
         <v>0</v>
       </c>
       <c r="E254" s="3" t="s">
@@ -12199,14 +12173,14 @@
       <c r="G254" s="7"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B255" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C255" s="118" t="s">
         <v>658</v>
       </c>
-      <c r="D255" s="176"/>
+      <c r="D255" s="155"/>
       <c r="E255" s="4">
         <v>10</v>
       </c>
@@ -12214,14 +12188,14 @@
       <c r="G255" s="123"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="2:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B256" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C256" s="118" t="s">
         <v>659</v>
       </c>
-      <c r="D256" s="164"/>
+      <c r="D256" s="155"/>
       <c r="E256" s="4">
         <v>10</v>
       </c>
@@ -12229,14 +12203,14 @@
       <c r="G256" s="123"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B257" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C257" s="118" t="s">
         <v>660</v>
       </c>
-      <c r="D257" s="165"/>
+      <c r="D257" s="155"/>
       <c r="E257" s="4">
         <v>10</v>
       </c>
@@ -12244,14 +12218,14 @@
       <c r="G257" s="123"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B258" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C258" s="118" t="s">
         <v>661</v>
       </c>
-      <c r="D258" s="166"/>
+      <c r="D258" s="155"/>
       <c r="E258" s="4">
         <v>10</v>
       </c>
@@ -12259,7 +12233,7 @@
       <c r="G258" s="123"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="4" t="s">
         <v>2</v>
       </c>
@@ -12279,42 +12253,43 @@
       <c r="G259" s="121"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="4"/>
       <c r="C260" s="152"/>
       <c r="D260" s="156"/>
       <c r="E260" s="4"/>
       <c r="F260" s="11"/>
-      <c r="G260" s="167"/>
+      <c r="G260" s="121"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C261" s="2"/>
-      <c r="D261" s="155">
+      <c r="D261" s="189">
         <f>+D16+D25+D36+D43+D49+D56+D62+D69+D76+D82+D90+D97+D107+D115+D122+D128+D135+D140+D151+D159+D164+D172+D179+D185+D192+D200+D210+D217+D225+D231+D238+D246+D252+D259</f>
         <v>0</v>
       </c>
       <c r="E261" s="4"/>
-      <c r="F261" s="9"/>
-      <c r="G261" s="187"/>
+      <c r="F261" s="190"/>
+      <c r="G261" s="153"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C262" s="2"/>
-      <c r="D262" s="155">
+      <c r="D262" s="188">
         <v>1510</v>
       </c>
       <c r="E262" s="4"/>
-      <c r="G262" s="188"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="191"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
         <v>3</v>
       </c>
@@ -12325,95 +12300,12 @@
         <f>+D261/D262</f>
         <v>0</v>
       </c>
-      <c r="G263" s="152"/>
+      <c r="G263" s="4"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="44"/>
       <c r="C264" s="152"/>
-      <c r="G264" s="152"/>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D265" s="189"/>
-      <c r="G265" s="190"/>
-    </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D266" s="169"/>
-    </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D267" s="169"/>
-    </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D268" s="169"/>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D269" s="169"/>
-    </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D270" s="169"/>
-    </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D271" s="189"/>
-    </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D272" s="169"/>
-    </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D273" s="169"/>
-    </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D274" s="169"/>
-    </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D275" s="169"/>
-    </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D276" s="169"/>
-    </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D277" s="169"/>
-    </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D278" s="189"/>
-    </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D279" s="169"/>
-    </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D280" s="169"/>
-    </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D281" s="169"/>
-    </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D282" s="169"/>
-    </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D283" s="169"/>
-    </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D284" s="169"/>
-    </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D285" s="169"/>
-    </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D286" s="169"/>
-    </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D287" s="191"/>
-    </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D288" s="189"/>
-    </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D289" s="169"/>
-    </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D290" s="169"/>
-    </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D291" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12428,34 +12320,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H290"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.74609375" customWidth="1"/>
-    <col min="2" max="2" width="13.98828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.3671875" customWidth="1"/>
-    <col min="4" max="4" width="8.7421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.73828125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.7421875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.984375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="55.421875" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="51" style="5" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="193" t="s">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>333</v>
       </c>
@@ -12466,7 +12358,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
@@ -12477,7 +12369,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
@@ -12488,7 +12380,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
@@ -12499,11 +12391,11 @@
       <c r="G6" s="16"/>
       <c r="H6" s="116"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>59</v>
       </c>
@@ -12524,7 +12416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
@@ -12539,7 +12431,7 @@
       <c r="G9" s="119"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
@@ -12554,7 +12446,7 @@
       <c r="G10" s="119"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
@@ -12569,7 +12461,7 @@
       <c r="G11" s="119"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
@@ -12584,7 +12476,7 @@
       <c r="G12" s="119"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -12604,7 +12496,7 @@
       <c r="G13" s="121"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
@@ -12613,7 +12505,7 @@
       <c r="G14" s="121"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
@@ -12628,7 +12520,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
@@ -12643,7 +12535,7 @@
       <c r="G16" s="123"/>
       <c r="H16" s="62"/>
     </row>
-    <row r="17" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
@@ -12658,7 +12550,7 @@
       <c r="G17" s="123"/>
       <c r="H17" s="62"/>
     </row>
-    <row r="18" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
@@ -12673,7 +12565,7 @@
       <c r="G18" s="123"/>
       <c r="H18" s="124"/>
     </row>
-    <row r="19" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>15</v>
       </c>
@@ -12688,7 +12580,7 @@
       <c r="G19" s="123"/>
       <c r="H19" s="62"/>
     </row>
-    <row r="20" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
@@ -12703,7 +12595,7 @@
       <c r="G20" s="123"/>
       <c r="H20" s="62"/>
     </row>
-    <row r="21" spans="2:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>17</v>
       </c>
@@ -12718,7 +12610,7 @@
       <c r="G21" s="123"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>18</v>
       </c>
@@ -12733,7 +12625,7 @@
       <c r="G22" s="125"/>
       <c r="H22" s="62"/>
     </row>
-    <row r="23" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
@@ -12748,7 +12640,7 @@
       <c r="G23" s="126"/>
       <c r="H23" s="127"/>
     </row>
-    <row r="24" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
@@ -12763,7 +12655,7 @@
       <c r="G24" s="128"/>
       <c r="H24" s="62"/>
     </row>
-    <row r="25" spans="2:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>21</v>
       </c>
@@ -12778,7 +12670,7 @@
       <c r="G25" s="123"/>
       <c r="H25" s="62"/>
     </row>
-    <row r="26" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>22</v>
       </c>
@@ -12793,7 +12685,7 @@
       <c r="G26" s="123"/>
       <c r="H26" s="62"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
@@ -12813,7 +12705,7 @@
       <c r="G27" s="121"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
@@ -12822,7 +12714,7 @@
       <c r="G28" s="121"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
@@ -12837,7 +12729,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>12</v>
       </c>
@@ -12852,7 +12744,7 @@
       <c r="G30" s="126"/>
       <c r="H30" s="127"/>
     </row>
-    <row r="31" spans="2:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>13</v>
       </c>
@@ -12867,7 +12759,7 @@
       <c r="G31" s="126"/>
       <c r="H31" s="127"/>
     </row>
-    <row r="32" spans="2:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>14</v>
       </c>
@@ -12882,7 +12774,7 @@
       <c r="G32" s="128"/>
       <c r="H32" s="62"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -12902,7 +12794,7 @@
       <c r="G33" s="121"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -12910,7 +12802,7 @@
       <c r="G34" s="121"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>62</v>
       </c>
@@ -12925,7 +12817,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
         <v>12</v>
       </c>
@@ -12940,7 +12832,7 @@
       <c r="G36" s="123"/>
       <c r="H36" s="67"/>
     </row>
-    <row r="37" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>13</v>
       </c>
@@ -12955,7 +12847,7 @@
       <c r="G37" s="131"/>
       <c r="H37" s="67"/>
     </row>
-    <row r="38" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
@@ -12970,7 +12862,7 @@
       <c r="G38" s="131"/>
       <c r="H38" s="67"/>
     </row>
-    <row r="39" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>15</v>
       </c>
@@ -12985,7 +12877,7 @@
       <c r="G39" s="131"/>
       <c r="H39" s="67"/>
     </row>
-    <row r="40" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
@@ -13000,7 +12892,7 @@
       <c r="G40" s="123"/>
       <c r="H40" s="67"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -13020,7 +12912,7 @@
       <c r="G41" s="121"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -13028,7 +12920,7 @@
       <c r="G42" s="121"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>63</v>
       </c>
@@ -13043,7 +12935,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
         <v>12</v>
       </c>
@@ -13058,7 +12950,7 @@
       <c r="G44" s="123"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>13</v>
       </c>
@@ -13073,7 +12965,7 @@
       <c r="G45" s="123"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>14</v>
       </c>
@@ -13088,7 +12980,7 @@
       <c r="G46" s="123"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>15</v>
       </c>
@@ -13103,7 +12995,7 @@
       <c r="G47" s="123"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>16</v>
       </c>
@@ -13118,7 +13010,7 @@
       <c r="G48" s="123"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
@@ -13138,7 +13030,7 @@
       <c r="G49" s="121"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -13146,7 +13038,7 @@
       <c r="G50" s="121"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
@@ -13161,7 +13053,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
         <v>12</v>
       </c>
@@ -13176,7 +13068,7 @@
       <c r="G52" s="123"/>
       <c r="H52" s="67"/>
     </row>
-    <row r="53" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>13</v>
       </c>
@@ -13191,7 +13083,7 @@
       <c r="G53" s="123"/>
       <c r="H53" s="67"/>
     </row>
-    <row r="54" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
         <v>14</v>
       </c>
@@ -13206,7 +13098,7 @@
       <c r="G54" s="123"/>
       <c r="H54" s="68"/>
     </row>
-    <row r="55" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
         <v>15</v>
       </c>
@@ -13221,7 +13113,7 @@
       <c r="G55" s="123"/>
       <c r="H55" s="67"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -13241,7 +13133,7 @@
       <c r="G56" s="121"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="132"/>
       <c r="D57" s="4"/>
@@ -13250,7 +13142,7 @@
       <c r="G57" s="121"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
@@ -13265,7 +13157,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>12</v>
       </c>
@@ -13280,7 +13172,7 @@
       <c r="G59" s="123"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
         <v>13</v>
       </c>
@@ -13295,7 +13187,7 @@
       <c r="G60" s="131"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
         <v>14</v>
       </c>
@@ -13310,7 +13202,7 @@
       <c r="G61" s="123"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
         <v>15</v>
       </c>
@@ -13325,7 +13217,7 @@
       <c r="G62" s="123"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>16</v>
       </c>
@@ -13340,7 +13232,7 @@
       <c r="G63" s="123"/>
       <c r="H63" s="67"/>
     </row>
-    <row r="64" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>17</v>
       </c>
@@ -13355,7 +13247,7 @@
       <c r="G64" s="133"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
         <v>18</v>
       </c>
@@ -13370,7 +13262,7 @@
       <c r="G65" s="133"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
@@ -13390,7 +13282,7 @@
       <c r="G66" s="121"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="132"/>
       <c r="D67" s="4"/>
@@ -13399,7 +13291,7 @@
       <c r="G67" s="121"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>66</v>
       </c>
@@ -13414,7 +13306,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
         <v>12</v>
       </c>
@@ -13429,7 +13321,7 @@
       <c r="G69" s="123"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>13</v>
       </c>
@@ -13444,7 +13336,7 @@
       <c r="G70" s="123"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>14</v>
       </c>
@@ -13459,7 +13351,7 @@
       <c r="G71" s="123"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
         <v>15</v>
       </c>
@@ -13474,7 +13366,7 @@
       <c r="G72" s="123"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
         <v>16</v>
       </c>
@@ -13489,7 +13381,7 @@
       <c r="G73" s="134"/>
       <c r="H73" s="62"/>
     </row>
-    <row r="74" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
         <v>17</v>
       </c>
@@ -13504,7 +13396,7 @@
       <c r="G74" s="134"/>
       <c r="H74" s="67"/>
     </row>
-    <row r="75" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
         <v>18</v>
       </c>
@@ -13519,7 +13411,7 @@
       <c r="G75" s="134"/>
       <c r="H75" s="123"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
@@ -13539,7 +13431,7 @@
       <c r="G76" s="121"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="132"/>
       <c r="D77" s="4"/>
@@ -13548,7 +13440,7 @@
       <c r="G77" s="121"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>67</v>
       </c>
@@ -13563,7 +13455,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
         <v>12</v>
       </c>
@@ -13578,7 +13470,7 @@
       <c r="G79" s="123"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
         <v>13</v>
       </c>
@@ -13593,7 +13485,7 @@
       <c r="G80" s="123"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
         <v>14</v>
       </c>
@@ -13608,7 +13500,7 @@
       <c r="G81" s="123"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>15</v>
       </c>
@@ -13623,7 +13515,7 @@
       <c r="G82" s="123"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
         <v>16</v>
       </c>
@@ -13638,7 +13530,7 @@
       <c r="G83" s="123"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
         <v>17</v>
       </c>
@@ -13653,7 +13545,7 @@
       <c r="G84" s="123"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
         <v>18</v>
       </c>
@@ -13668,7 +13560,7 @@
       <c r="G85" s="135"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
         <v>19</v>
       </c>
@@ -13683,7 +13575,7 @@
       <c r="G86" s="136"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
@@ -13703,7 +13595,7 @@
       <c r="G87" s="121"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -13711,7 +13603,7 @@
       <c r="G88" s="121"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>68</v>
       </c>
@@ -13726,7 +13618,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
         <v>12</v>
       </c>
@@ -13741,7 +13633,7 @@
       <c r="G90" s="123"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
         <v>13</v>
       </c>
@@ -13756,7 +13648,7 @@
       <c r="G91" s="123"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
         <v>14</v>
       </c>
@@ -13771,7 +13663,7 @@
       <c r="G92" s="123"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
         <v>15</v>
       </c>
@@ -13786,7 +13678,7 @@
       <c r="G93" s="123"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>16</v>
       </c>
@@ -13801,7 +13693,7 @@
       <c r="G94" s="123"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
         <v>17</v>
       </c>
@@ -13816,7 +13708,7 @@
       <c r="G95" s="123"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
         <v>18</v>
       </c>
@@ -13831,7 +13723,7 @@
       <c r="G96" s="123"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
         <v>19</v>
       </c>
@@ -13846,7 +13738,7 @@
       <c r="G97" s="123"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
         <v>20</v>
       </c>
@@ -13861,7 +13753,7 @@
       <c r="G98" s="134"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
@@ -13881,7 +13773,7 @@
       <c r="G99" s="121"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -13889,7 +13781,7 @@
       <c r="G100" s="121"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>69</v>
       </c>
@@ -13904,7 +13796,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
         <v>12</v>
       </c>
@@ -13919,7 +13811,7 @@
       <c r="G102" s="123"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
         <v>13</v>
       </c>
@@ -13934,7 +13826,7 @@
       <c r="G103" s="137"/>
       <c r="H103" s="67"/>
     </row>
-    <row r="104" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
         <v>14</v>
       </c>
@@ -13949,7 +13841,7 @@
       <c r="G104" s="123"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="s">
         <v>15</v>
       </c>
@@ -13964,7 +13856,7 @@
       <c r="G105" s="123"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
         <v>16</v>
       </c>
@@ -13979,7 +13871,7 @@
       <c r="G106" s="123"/>
       <c r="H106" s="67"/>
     </row>
-    <row r="107" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
         <v>17</v>
       </c>
@@ -13994,7 +13886,7 @@
       <c r="G107" s="123"/>
       <c r="H107" s="67"/>
     </row>
-    <row r="108" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
         <v>18</v>
       </c>
@@ -14009,7 +13901,7 @@
       <c r="G108" s="123"/>
       <c r="H108" s="67"/>
     </row>
-    <row r="109" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
         <v>19</v>
       </c>
@@ -14024,7 +13916,7 @@
       <c r="G109" s="138"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
@@ -14044,7 +13936,7 @@
       <c r="G110" s="121"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -14052,7 +13944,7 @@
       <c r="G111" s="121"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>70</v>
       </c>
@@ -14067,7 +13959,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>12</v>
       </c>
@@ -14082,7 +13974,7 @@
       <c r="G113" s="123"/>
       <c r="H113" s="67"/>
     </row>
-    <row r="114" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
         <v>13</v>
       </c>
@@ -14097,7 +13989,7 @@
       <c r="G114" s="123"/>
       <c r="H114" s="67"/>
     </row>
-    <row r="115" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
         <v>14</v>
       </c>
@@ -14112,7 +14004,7 @@
       <c r="G115" s="140"/>
       <c r="H115" s="67"/>
     </row>
-    <row r="116" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
         <v>15</v>
       </c>
@@ -14127,7 +14019,7 @@
       <c r="G116" s="123"/>
       <c r="H116" s="67"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
         <v>2</v>
       </c>
@@ -14147,7 +14039,7 @@
       <c r="G117" s="121"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -14155,7 +14047,7 @@
       <c r="G118" s="121"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
         <v>71</v>
       </c>
@@ -14170,7 +14062,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
         <v>12</v>
       </c>
@@ -14185,7 +14077,7 @@
       <c r="G120" s="123"/>
       <c r="H120" s="67"/>
     </row>
-    <row r="121" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
         <v>13</v>
       </c>
@@ -14200,7 +14092,7 @@
       <c r="G121" s="123"/>
       <c r="H121" s="123"/>
     </row>
-    <row r="122" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="s">
         <v>14</v>
       </c>
@@ -14215,7 +14107,7 @@
       <c r="G122" s="131"/>
       <c r="H122" s="67"/>
     </row>
-    <row r="123" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="s">
         <v>15</v>
       </c>
@@ -14230,7 +14122,7 @@
       <c r="G123" s="123"/>
       <c r="H123" s="123"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>2</v>
       </c>
@@ -14250,7 +14142,7 @@
       <c r="G124" s="121"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -14258,7 +14150,7 @@
       <c r="G125" s="121"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
         <v>72</v>
       </c>
@@ -14273,7 +14165,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
         <v>12</v>
       </c>
@@ -14288,7 +14180,7 @@
       <c r="G127" s="123"/>
       <c r="H127" s="123"/>
     </row>
-    <row r="128" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="s">
         <v>13</v>
       </c>
@@ -14303,7 +14195,7 @@
       <c r="G128" s="131"/>
       <c r="H128" s="67"/>
     </row>
-    <row r="129" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="s">
         <v>14</v>
       </c>
@@ -14318,7 +14210,7 @@
       <c r="G129" s="131"/>
       <c r="H129" s="67"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
         <v>2</v>
       </c>
@@ -14338,7 +14230,7 @@
       <c r="G130" s="121"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -14346,7 +14238,7 @@
       <c r="G131" s="121"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
         <v>73</v>
       </c>
@@ -14361,7 +14253,7 @@
       <c r="G132" s="7"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
         <v>12</v>
       </c>
@@ -14376,7 +14268,7 @@
       <c r="G133" s="123"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B134" s="15" t="s">
         <v>13</v>
       </c>
@@ -14391,7 +14283,7 @@
       <c r="G134" s="123"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
         <v>2</v>
       </c>
@@ -14411,7 +14303,7 @@
       <c r="G135" s="121"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -14419,7 +14311,7 @@
       <c r="G136" s="121"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
         <v>74</v>
       </c>
@@ -14434,7 +14326,7 @@
       <c r="G137" s="7"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
         <v>12</v>
       </c>
@@ -14449,7 +14341,7 @@
       <c r="G138" s="123"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
         <v>13</v>
       </c>
@@ -14464,7 +14356,7 @@
       <c r="G139" s="123"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
         <v>14</v>
       </c>
@@ -14479,7 +14371,7 @@
       <c r="G140" s="123"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
         <v>15</v>
       </c>
@@ -14494,7 +14386,7 @@
       <c r="G141" s="123"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B142" s="15" t="s">
         <v>16</v>
       </c>
@@ -14509,7 +14401,7 @@
       <c r="G142" s="123"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="15" t="s">
         <v>17</v>
       </c>
@@ -14524,7 +14416,7 @@
       <c r="G143" s="123"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
         <v>18</v>
       </c>
@@ -14539,7 +14431,7 @@
       <c r="G144" s="123"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
         <v>2</v>
       </c>
@@ -14559,7 +14451,7 @@
       <c r="G145" s="121"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -14567,7 +14459,7 @@
       <c r="G146" s="121"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>75</v>
       </c>
@@ -14582,7 +14474,7 @@
       <c r="G147" s="7"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B148" s="15" t="s">
         <v>12</v>
       </c>
@@ -14597,7 +14489,7 @@
       <c r="G148" s="123"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B149" s="15" t="s">
         <v>13</v>
       </c>
@@ -14612,7 +14504,7 @@
       <c r="G149" s="123"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B150" s="15" t="s">
         <v>14</v>
       </c>
@@ -14627,7 +14519,7 @@
       <c r="G150" s="123"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B151" s="15" t="s">
         <v>15</v>
       </c>
@@ -14642,7 +14534,7 @@
       <c r="G151" s="123"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B152" s="15" t="s">
         <v>16</v>
       </c>
@@ -14657,7 +14549,7 @@
       <c r="G152" s="123"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
@@ -14677,7 +14569,7 @@
       <c r="G153" s="121"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -14685,7 +14577,7 @@
       <c r="G154" s="121"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
         <v>76</v>
       </c>
@@ -14700,7 +14592,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B156" s="15" t="s">
         <v>12</v>
       </c>
@@ -14715,7 +14607,7 @@
       <c r="G156" s="123"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B157" s="15" t="s">
         <v>13</v>
       </c>
@@ -14730,7 +14622,7 @@
       <c r="G157" s="123"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B158" s="15" t="s">
         <v>14</v>
       </c>
@@ -14745,7 +14637,7 @@
       <c r="G158" s="123"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
         <v>2</v>
       </c>
@@ -14765,7 +14657,7 @@
       <c r="G159" s="121"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -14773,7 +14665,7 @@
       <c r="G160" s="121"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
         <v>77</v>
       </c>
@@ -14788,7 +14680,7 @@
       <c r="G161" s="7"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B162" s="15" t="s">
         <v>12</v>
       </c>
@@ -14803,7 +14695,7 @@
       <c r="G162" s="123"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="15" t="s">
         <v>13</v>
       </c>
@@ -14818,7 +14710,7 @@
       <c r="G163" s="123"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="15" t="s">
         <v>14</v>
       </c>
@@ -14833,7 +14725,7 @@
       <c r="G164" s="123"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B165" s="15" t="s">
         <v>15</v>
       </c>
@@ -14848,7 +14740,7 @@
       <c r="G165" s="123"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="15" t="s">
         <v>16</v>
       </c>
@@ -14863,7 +14755,7 @@
       <c r="G166" s="123"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B167" s="15" t="s">
         <v>17</v>
       </c>
@@ -14878,7 +14770,7 @@
       <c r="G167" s="123"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="4" t="s">
         <v>2</v>
       </c>
@@ -14898,7 +14790,7 @@
       <c r="G168" s="121"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -14906,7 +14798,7 @@
       <c r="G169" s="121"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="3" t="s">
         <v>78</v>
       </c>
@@ -14921,7 +14813,7 @@
       <c r="G170" s="7"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B171" s="15" t="s">
         <v>12</v>
       </c>
@@ -14936,7 +14828,7 @@
       <c r="G171" s="123"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B172" s="15" t="s">
         <v>13</v>
       </c>
@@ -14951,7 +14843,7 @@
       <c r="G172" s="123"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B173" s="15" t="s">
         <v>14</v>
       </c>
@@ -14966,7 +14858,7 @@
       <c r="G173" s="123"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B174" s="15" t="s">
         <v>15</v>
       </c>
@@ -14981,7 +14873,7 @@
       <c r="G174" s="123"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B175" s="15" t="s">
         <v>16</v>
       </c>
@@ -14996,7 +14888,7 @@
       <c r="G175" s="123"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="4" t="s">
         <v>2</v>
       </c>
@@ -15016,7 +14908,7 @@
       <c r="G176" s="121"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -15024,7 +14916,7 @@
       <c r="G177" s="121"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="3" t="s">
         <v>81</v>
       </c>
@@ -15039,7 +14931,7 @@
       <c r="G178" s="7"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B179" s="15" t="s">
         <v>12</v>
       </c>
@@ -15054,7 +14946,7 @@
       <c r="G179" s="123"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B180" s="15" t="s">
         <v>13</v>
       </c>
@@ -15069,7 +14961,7 @@
       <c r="G180" s="123"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B181" s="15" t="s">
         <v>14</v>
       </c>
@@ -15084,7 +14976,7 @@
       <c r="G181" s="123"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B182" s="15" t="s">
         <v>15</v>
       </c>
@@ -15099,7 +14991,7 @@
       <c r="G182" s="123"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B183" s="15" t="s">
         <v>16</v>
       </c>
@@ -15114,7 +15006,7 @@
       <c r="G183" s="123"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B184" s="15" t="s">
         <v>17</v>
       </c>
@@ -15129,7 +15021,7 @@
       <c r="G184" s="123"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="4" t="s">
         <v>2</v>
       </c>
@@ -15149,7 +15041,7 @@
       <c r="G185" s="121"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -15157,7 +15049,7 @@
       <c r="G186" s="121"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
         <v>82</v>
       </c>
@@ -15172,7 +15064,7 @@
       <c r="G187" s="7"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B188" s="15" t="s">
         <v>12</v>
       </c>
@@ -15187,7 +15079,7 @@
       <c r="G188" s="123"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B189" s="15" t="s">
         <v>13</v>
       </c>
@@ -15202,7 +15094,7 @@
       <c r="G189" s="123"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B190" s="15" t="s">
         <v>14</v>
       </c>
@@ -15217,7 +15109,7 @@
       <c r="G190" s="123"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B191" s="15" t="s">
         <v>15</v>
       </c>
@@ -15232,7 +15124,7 @@
       <c r="G191" s="123"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B192" s="15" t="s">
         <v>16</v>
       </c>
@@ -15247,7 +15139,7 @@
       <c r="G192" s="123"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="4" t="s">
         <v>2</v>
       </c>
@@ -15267,7 +15159,7 @@
       <c r="G193" s="121"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -15275,7 +15167,7 @@
       <c r="G194" s="121"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
         <v>83</v>
       </c>
@@ -15290,7 +15182,7 @@
       <c r="G195" s="7"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="15" t="s">
         <v>12</v>
       </c>
@@ -15305,7 +15197,7 @@
       <c r="G196" s="131"/>
       <c r="H196" s="62"/>
     </row>
-    <row r="197" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B197" s="15" t="s">
         <v>13</v>
       </c>
@@ -15320,7 +15212,7 @@
       <c r="G197" s="123"/>
       <c r="H197" s="62"/>
     </row>
-    <row r="198" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B198" s="15" t="s">
         <v>14</v>
       </c>
@@ -15335,7 +15227,7 @@
       <c r="G198" s="123"/>
       <c r="H198" s="62"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="4" t="s">
         <v>2</v>
       </c>
@@ -15355,7 +15247,7 @@
       <c r="G199" s="121"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -15363,7 +15255,7 @@
       <c r="G200" s="121"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
         <v>84</v>
       </c>
@@ -15378,7 +15270,7 @@
       <c r="G201" s="7"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B202" s="15" t="s">
         <v>12</v>
       </c>
@@ -15393,7 +15285,7 @@
       <c r="G202" s="141"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="15" t="s">
         <v>13</v>
       </c>
@@ -15408,7 +15300,7 @@
       <c r="G203" s="123"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B204" s="15" t="s">
         <v>14</v>
       </c>
@@ -15423,7 +15315,7 @@
       <c r="G204" s="141"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="15" t="s">
         <v>15</v>
       </c>
@@ -15438,7 +15330,7 @@
       <c r="G205" s="123"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="4" t="s">
         <v>2</v>
       </c>
@@ -15458,7 +15350,7 @@
       <c r="G206" s="121"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -15466,7 +15358,7 @@
       <c r="G207" s="121"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
         <v>85</v>
       </c>
@@ -15481,7 +15373,7 @@
       <c r="G208" s="7"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="15" t="s">
         <v>12</v>
       </c>
@@ -15496,7 +15388,7 @@
       <c r="G209" s="131"/>
       <c r="H209" s="67"/>
     </row>
-    <row r="210" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B210" s="15" t="s">
         <v>13</v>
       </c>
@@ -15511,7 +15403,7 @@
       <c r="G210" s="142"/>
       <c r="H210" s="67"/>
     </row>
-    <row r="211" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="15" t="s">
         <v>14</v>
       </c>
@@ -15526,7 +15418,7 @@
       <c r="G211" s="131"/>
       <c r="H211" s="62"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="4" t="s">
         <v>2</v>
       </c>
@@ -15546,7 +15438,7 @@
       <c r="G212" s="121"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -15554,7 +15446,7 @@
       <c r="G213" s="121"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
         <v>86</v>
       </c>
@@ -15569,7 +15461,7 @@
       <c r="G214" s="7"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B215" s="15" t="s">
         <v>12</v>
       </c>
@@ -15584,7 +15476,7 @@
       <c r="G215" s="131"/>
       <c r="H215" s="62"/>
     </row>
-    <row r="216" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B216" s="15" t="s">
         <v>13</v>
       </c>
@@ -15599,7 +15491,7 @@
       <c r="G216" s="131"/>
       <c r="H216" s="67"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B217" s="15" t="s">
         <v>14</v>
       </c>
@@ -15614,7 +15506,7 @@
       <c r="G217" s="143"/>
       <c r="H217" s="62"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="4" t="s">
         <v>2</v>
       </c>
@@ -15634,7 +15526,7 @@
       <c r="G218" s="121"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -15642,7 +15534,7 @@
       <c r="G219" s="121"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
         <v>87</v>
       </c>
@@ -15657,7 +15549,7 @@
       <c r="G220" s="7"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="15" t="s">
         <v>12</v>
       </c>
@@ -15672,7 +15564,7 @@
       <c r="G221" s="143"/>
       <c r="H221" s="144"/>
     </row>
-    <row r="222" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="15" t="s">
         <v>13</v>
       </c>
@@ -15687,7 +15579,7 @@
       <c r="G222" s="123"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="2:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="15" t="s">
         <v>14</v>
       </c>
@@ -15702,7 +15594,7 @@
       <c r="G223" s="123"/>
       <c r="H223" s="62"/>
     </row>
-    <row r="224" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="15" t="s">
         <v>15</v>
       </c>
@@ -15717,7 +15609,7 @@
       <c r="G224" s="134"/>
       <c r="H224" s="145"/>
     </row>
-    <row r="225" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B225" s="15" t="s">
         <v>16</v>
       </c>
@@ -15732,7 +15624,7 @@
       <c r="G225" s="141"/>
       <c r="H225" s="145"/>
     </row>
-    <row r="226" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B226" s="15" t="s">
         <v>17</v>
       </c>
@@ -15747,7 +15639,7 @@
       <c r="G226" s="123"/>
       <c r="H226" s="62"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="4" t="s">
         <v>2</v>
       </c>
@@ -15767,7 +15659,7 @@
       <c r="G227" s="121"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -15775,7 +15667,7 @@
       <c r="G228" s="121"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
         <v>88</v>
       </c>
@@ -15790,7 +15682,7 @@
       <c r="G229" s="7"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="15" t="s">
         <v>12</v>
       </c>
@@ -15805,7 +15697,7 @@
       <c r="G230" s="123"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="15" t="s">
         <v>13</v>
       </c>
@@ -15820,7 +15712,7 @@
       <c r="G231" s="123"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B232" s="15" t="s">
         <v>14</v>
       </c>
@@ -15835,7 +15727,7 @@
       <c r="G232" s="123"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B233" s="15" t="s">
         <v>15</v>
       </c>
@@ -15850,7 +15742,7 @@
       <c r="G233" s="123"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="4" t="s">
         <v>2</v>
       </c>
@@ -15870,7 +15762,7 @@
       <c r="G234" s="121"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -15878,7 +15770,7 @@
       <c r="G235" s="121"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
         <v>89</v>
       </c>
@@ -15893,7 +15785,7 @@
       <c r="G236" s="7"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B237" s="15" t="s">
         <v>12</v>
       </c>
@@ -15908,7 +15800,7 @@
       <c r="G237" s="142"/>
       <c r="H237" s="67"/>
     </row>
-    <row r="238" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B238" s="15" t="s">
         <v>13</v>
       </c>
@@ -15923,7 +15815,7 @@
       <c r="G238" s="131"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B239" s="15" t="s">
         <v>14</v>
       </c>
@@ -15938,7 +15830,7 @@
       <c r="G239" s="131"/>
       <c r="H239" s="62"/>
     </row>
-    <row r="240" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B240" s="15" t="s">
         <v>15</v>
       </c>
@@ -15953,7 +15845,7 @@
       <c r="G240" s="142"/>
       <c r="H240" s="146"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="4" t="s">
         <v>2</v>
       </c>
@@ -15973,7 +15865,7 @@
       <c r="G241" s="121"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -15981,7 +15873,7 @@
       <c r="G242" s="121"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>90</v>
       </c>
@@ -15996,7 +15888,7 @@
       <c r="G243" s="7"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="2:8" ht="81" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B244" s="15" t="s">
         <v>12</v>
       </c>
@@ -16011,7 +15903,7 @@
       <c r="G244" s="131"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="15" t="s">
         <v>13</v>
       </c>
@@ -16026,7 +15918,7 @@
       <c r="G245" s="131"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="15" t="s">
         <v>14</v>
       </c>
@@ -16041,7 +15933,7 @@
       <c r="G246" s="147"/>
       <c r="H246" s="146"/>
     </row>
-    <row r="247" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="15" t="s">
         <v>15</v>
       </c>
@@ -16056,7 +15948,7 @@
       <c r="G247" s="131"/>
       <c r="H247" s="146"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="4" t="s">
         <v>2</v>
       </c>
@@ -16076,7 +15968,7 @@
       <c r="G248" s="121"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -16084,7 +15976,7 @@
       <c r="G249" s="121"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="3" t="s">
         <v>91</v>
       </c>
@@ -16099,7 +15991,7 @@
       <c r="G250" s="7"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B251" s="15" t="s">
         <v>12</v>
       </c>
@@ -16114,7 +16006,7 @@
       <c r="G251" s="131"/>
       <c r="H251" s="67"/>
     </row>
-    <row r="252" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B252" s="15" t="s">
         <v>13</v>
       </c>
@@ -16129,7 +16021,7 @@
       <c r="G252" s="149"/>
       <c r="H252" s="67"/>
     </row>
-    <row r="253" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="15" t="s">
         <v>14</v>
       </c>
@@ -16144,7 +16036,7 @@
       <c r="G253" s="131"/>
       <c r="H253" s="67"/>
     </row>
-    <row r="254" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="15" t="s">
         <v>15</v>
       </c>
@@ -16159,7 +16051,7 @@
       <c r="G254" s="131"/>
       <c r="H254" s="67"/>
     </row>
-    <row r="255" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B255" s="15" t="s">
         <v>16</v>
       </c>
@@ -16174,7 +16066,7 @@
       <c r="G255" s="150"/>
       <c r="H255" s="67"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="4" t="s">
         <v>2</v>
       </c>
@@ -16194,7 +16086,7 @@
       <c r="G256" s="121"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -16202,7 +16094,7 @@
       <c r="G257" s="121"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
         <v>92</v>
       </c>
@@ -16217,7 +16109,7 @@
       <c r="G258" s="7"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="15" t="s">
         <v>12</v>
       </c>
@@ -16232,7 +16124,7 @@
       <c r="G259" s="131"/>
       <c r="H259" s="67"/>
     </row>
-    <row r="260" spans="2:8" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B260" s="15" t="s">
         <v>13</v>
       </c>
@@ -16247,7 +16139,7 @@
       <c r="G260" s="149"/>
       <c r="H260" s="67"/>
     </row>
-    <row r="261" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="15" t="s">
         <v>14</v>
       </c>
@@ -16262,7 +16154,7 @@
       <c r="G261" s="131"/>
       <c r="H261" s="67"/>
     </row>
-    <row r="262" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="15" t="s">
         <v>15</v>
       </c>
@@ -16277,7 +16169,7 @@
       <c r="G262" s="131"/>
       <c r="H262" s="67"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="4" t="s">
         <v>2</v>
       </c>
@@ -16297,7 +16189,7 @@
       <c r="G263" s="121"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -16305,7 +16197,7 @@
       <c r="G264" s="121"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="3" t="s">
         <v>93</v>
       </c>
@@ -16320,7 +16212,7 @@
       <c r="G265" s="7"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B266" s="15" t="s">
         <v>12</v>
       </c>
@@ -16335,7 +16227,7 @@
       <c r="G266" s="131"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="2:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B267" s="15" t="s">
         <v>13</v>
       </c>
@@ -16350,7 +16242,7 @@
       <c r="G267" s="131"/>
       <c r="H267" s="145"/>
     </row>
-    <row r="268" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B268" s="15" t="s">
         <v>14</v>
       </c>
@@ -16365,7 +16257,7 @@
       <c r="G268" s="131"/>
       <c r="H268" s="62"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="4" t="s">
         <v>2</v>
       </c>
@@ -16385,7 +16277,7 @@
       <c r="G269" s="121"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -16393,7 +16285,7 @@
       <c r="G270" s="121"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="3" t="s">
         <v>94</v>
       </c>
@@ -16408,7 +16300,7 @@
       <c r="G271" s="7"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="15" t="s">
         <v>12</v>
       </c>
@@ -16423,7 +16315,7 @@
       <c r="G272" s="123"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="15" t="s">
         <v>13</v>
       </c>
@@ -16438,7 +16330,7 @@
       <c r="G273" s="131"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B274" s="15" t="s">
         <v>14</v>
       </c>
@@ -16453,7 +16345,7 @@
       <c r="G274" s="123"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B275" s="15" t="s">
         <v>15</v>
       </c>
@@ -16468,7 +16360,7 @@
       <c r="G275" s="131"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="4" t="s">
         <v>2</v>
       </c>
@@ -16488,7 +16380,7 @@
       <c r="G276" s="121"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -16496,7 +16388,7 @@
       <c r="G277" s="121"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="3" t="s">
         <v>95</v>
       </c>
@@ -16511,7 +16403,7 @@
       <c r="G278" s="7"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B279" s="15" t="s">
         <v>12</v>
       </c>
@@ -16526,7 +16418,7 @@
       <c r="G279" s="131"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="2:8" ht="55.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="15" t="s">
         <v>13</v>
       </c>
@@ -16541,7 +16433,7 @@
       <c r="G280" s="151"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="2:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B281" s="15" t="s">
         <v>14</v>
       </c>
@@ -16556,7 +16448,7 @@
       <c r="G281" s="131"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="2:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B282" s="15" t="s">
         <v>15</v>
       </c>
@@ -16571,7 +16463,7 @@
       <c r="G282" s="131"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="4" t="s">
         <v>2</v>
       </c>
@@ -16591,7 +16483,7 @@
       <c r="G283" s="121"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="4"/>
       <c r="C284" s="152"/>
       <c r="E284" s="4"/>
@@ -16599,7 +16491,7 @@
       <c r="G284" s="121"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>5</v>
       </c>
@@ -16613,7 +16505,7 @@
       <c r="G285" s="121"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
         <v>6</v>
       </c>
@@ -16626,7 +16518,7 @@
       <c r="G286" s="121"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="3" t="s">
         <v>3</v>
       </c>
@@ -16640,15 +16532,15 @@
       <c r="G287" s="153"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="44"/>
       <c r="C288" s="152"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G289" s="152"/>
     </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G290" s="152"/>
     </row>
   </sheetData>
@@ -16664,35 +16556,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H106"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B99" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.74609375" style="78" customWidth="1"/>
-    <col min="2" max="2" width="13.98828125" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.61328125" style="78" customWidth="1"/>
-    <col min="4" max="4" width="8.7421875" style="57" customWidth="1"/>
-    <col min="5" max="5" width="15.73828125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="8.7421875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="48.83203125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="100.7578125" style="78" customWidth="1"/>
-    <col min="9" max="16384" width="9.14453125" style="78"/>
+    <col min="1" max="1" width="1.7109375" style="78" customWidth="1"/>
+    <col min="2" max="2" width="14" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="78" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" style="57" customWidth="1"/>
+    <col min="8" max="8" width="100.7109375" style="78" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="194" t="s">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="53" t="s">
         <v>118</v>
       </c>
@@ -16702,7 +16594,7 @@
       <c r="G3" s="93"/>
       <c r="H3" s="93"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
         <v>9</v>
       </c>
@@ -16712,7 +16604,7 @@
       <c r="G4" s="93"/>
       <c r="H4" s="93"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
@@ -16722,7 +16614,7 @@
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
         <v>8</v>
       </c>
@@ -16732,10 +16624,10 @@
       <c r="G6" s="93"/>
       <c r="H6" s="94"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="57"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="59" t="s">
         <v>158</v>
       </c>
@@ -16754,7 +16646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="104" t="s">
         <v>97</v>
       </c>
@@ -16765,7 +16657,7 @@
       <c r="G9" s="105"/>
       <c r="H9" s="107"/>
     </row>
-    <row r="10" spans="2:8" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="66" t="s">
         <v>12</v>
       </c>
@@ -16780,7 +16672,7 @@
       <c r="G10" s="97"/>
       <c r="H10" s="70"/>
     </row>
-    <row r="11" spans="2:8" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>13</v>
       </c>
@@ -16795,7 +16687,7 @@
       <c r="G11" s="97"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="2:8" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="66" t="s">
         <v>14</v>
       </c>
@@ -16810,7 +16702,7 @@
       <c r="G12" s="97"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="2:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="66" t="s">
         <v>15</v>
       </c>
@@ -16825,7 +16717,7 @@
       <c r="G13" s="97"/>
       <c r="H13" s="70"/>
     </row>
-    <row r="14" spans="2:8" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="66" t="s">
         <v>16</v>
       </c>
@@ -16840,7 +16732,7 @@
       <c r="G14" s="97"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="66" t="s">
         <v>17</v>
       </c>
@@ -16855,7 +16747,7 @@
       <c r="G15" s="97"/>
       <c r="H15" s="70"/>
     </row>
-    <row r="16" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="66" t="s">
         <v>18</v>
       </c>
@@ -16870,7 +16762,7 @@
       <c r="G16" s="97"/>
       <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="2:8" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="66" t="s">
         <v>19</v>
       </c>
@@ -16885,7 +16777,7 @@
       <c r="G17" s="97"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="66" t="s">
         <v>20</v>
       </c>
@@ -16900,7 +16792,7 @@
       <c r="G18" s="97"/>
       <c r="H18" s="70"/>
     </row>
-    <row r="19" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="66" t="s">
         <v>21</v>
       </c>
@@ -16915,7 +16807,7 @@
       <c r="G19" s="97"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="64" t="s">
         <v>2</v>
       </c>
@@ -16935,7 +16827,7 @@
       <c r="G20" s="98"/>
       <c r="H20" s="70"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -16944,7 +16836,7 @@
       <c r="G21" s="99"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="59" t="s">
         <v>98</v>
       </c>
@@ -16959,7 +16851,7 @@
       <c r="G22" s="97"/>
       <c r="H22" s="70"/>
     </row>
-    <row r="23" spans="2:8" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="66" t="s">
         <v>12</v>
       </c>
@@ -16974,7 +16866,7 @@
       <c r="G23" s="97"/>
       <c r="H23" s="70"/>
     </row>
-    <row r="24" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="66" t="s">
         <v>13</v>
       </c>
@@ -16989,7 +16881,7 @@
       <c r="G24" s="97"/>
       <c r="H24" s="70"/>
     </row>
-    <row r="25" spans="2:8" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="66" t="s">
         <v>14</v>
       </c>
@@ -17004,7 +16896,7 @@
       <c r="G25" s="97"/>
       <c r="H25" s="70"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="64" t="s">
         <v>2</v>
       </c>
@@ -17024,7 +16916,7 @@
       <c r="G26" s="98"/>
       <c r="H26" s="70"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -17033,7 +16925,7 @@
       <c r="G27" s="99"/>
       <c r="H27" s="70"/>
     </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="59" t="s">
         <v>99</v>
       </c>
@@ -17048,7 +16940,7 @@
       <c r="G28" s="97"/>
       <c r="H28" s="70"/>
     </row>
-    <row r="29" spans="2:8" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="66" t="s">
         <v>12</v>
       </c>
@@ -17063,7 +16955,7 @@
       <c r="G29" s="97"/>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="2:8" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="66" t="s">
         <v>13</v>
       </c>
@@ -17078,7 +16970,7 @@
       <c r="G30" s="97"/>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="66" t="s">
         <v>14</v>
       </c>
@@ -17093,7 +16985,7 @@
       <c r="G31" s="97"/>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="64" t="s">
         <v>2</v>
       </c>
@@ -17113,7 +17005,7 @@
       <c r="G32" s="98"/>
       <c r="H32" s="70"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
@@ -17122,7 +17014,7 @@
       <c r="G33" s="99"/>
       <c r="H33" s="70"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="59" t="s">
         <v>100</v>
       </c>
@@ -17137,7 +17029,7 @@
       <c r="G34" s="97"/>
       <c r="H34" s="70"/>
     </row>
-    <row r="35" spans="2:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="66" t="s">
         <v>12</v>
       </c>
@@ -17152,7 +17044,7 @@
       <c r="G35" s="97"/>
       <c r="H35" s="70"/>
     </row>
-    <row r="36" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="66" t="s">
         <v>13</v>
       </c>
@@ -17167,7 +17059,7 @@
       <c r="G36" s="97"/>
       <c r="H36" s="70"/>
     </row>
-    <row r="37" spans="2:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="66" t="s">
         <v>14</v>
       </c>
@@ -17182,7 +17074,7 @@
       <c r="G37" s="97"/>
       <c r="H37" s="70"/>
     </row>
-    <row r="38" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="66" t="s">
         <v>15</v>
       </c>
@@ -17197,7 +17089,7 @@
       <c r="G38" s="97"/>
       <c r="H38" s="70"/>
     </row>
-    <row r="39" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="66" t="s">
         <v>16</v>
       </c>
@@ -17212,7 +17104,7 @@
       <c r="G39" s="97"/>
       <c r="H39" s="70"/>
     </row>
-    <row r="40" spans="2:8" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="66" t="s">
         <v>17</v>
       </c>
@@ -17227,7 +17119,7 @@
       <c r="G40" s="97"/>
       <c r="H40" s="70"/>
     </row>
-    <row r="41" spans="2:8" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="66" t="s">
         <v>18</v>
       </c>
@@ -17242,7 +17134,7 @@
       <c r="G41" s="97"/>
       <c r="H41" s="70"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="64" t="s">
         <v>2</v>
       </c>
@@ -17262,7 +17154,7 @@
       <c r="G42" s="98"/>
       <c r="H42" s="70"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
@@ -17271,7 +17163,7 @@
       <c r="G43" s="99"/>
       <c r="H43" s="70"/>
     </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="59" t="s">
         <v>101</v>
       </c>
@@ -17286,7 +17178,7 @@
       <c r="G44" s="97"/>
       <c r="H44" s="70"/>
     </row>
-    <row r="45" spans="2:8" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="66" t="s">
         <v>12</v>
       </c>
@@ -17301,7 +17193,7 @@
       <c r="G45" s="97"/>
       <c r="H45" s="70"/>
     </row>
-    <row r="46" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="66" t="s">
         <v>13</v>
       </c>
@@ -17316,7 +17208,7 @@
       <c r="G46" s="97"/>
       <c r="H46" s="70"/>
     </row>
-    <row r="47" spans="2:8" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="66" t="s">
         <v>14</v>
       </c>
@@ -17331,7 +17223,7 @@
       <c r="G47" s="97"/>
       <c r="H47" s="70"/>
     </row>
-    <row r="48" spans="2:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="66" t="s">
         <v>15</v>
       </c>
@@ -17346,7 +17238,7 @@
       <c r="G48" s="97"/>
       <c r="H48" s="70"/>
     </row>
-    <row r="49" spans="2:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="66" t="s">
         <v>16</v>
       </c>
@@ -17361,7 +17253,7 @@
       <c r="G49" s="97"/>
       <c r="H49" s="70"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="64" t="s">
         <v>2</v>
       </c>
@@ -17381,7 +17273,7 @@
       <c r="G50" s="98"/>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
       <c r="D51" s="64"/>
@@ -17390,7 +17282,7 @@
       <c r="G51" s="99"/>
       <c r="H51" s="70"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="59" t="s">
         <v>102</v>
       </c>
@@ -17405,7 +17297,7 @@
       <c r="G52" s="97"/>
       <c r="H52" s="70"/>
     </row>
-    <row r="53" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="66" t="s">
         <v>12</v>
       </c>
@@ -17420,7 +17312,7 @@
       <c r="G53" s="97"/>
       <c r="H53" s="70"/>
     </row>
-    <row r="54" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="66" t="s">
         <v>13</v>
       </c>
@@ -17435,7 +17327,7 @@
       <c r="G54" s="97"/>
       <c r="H54" s="70"/>
     </row>
-    <row r="55" spans="2:8" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="66" t="s">
         <v>14</v>
       </c>
@@ -17450,7 +17342,7 @@
       <c r="G55" s="97"/>
       <c r="H55" s="70"/>
     </row>
-    <row r="56" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="66" t="s">
         <v>15</v>
       </c>
@@ -17465,7 +17357,7 @@
       <c r="G56" s="97"/>
       <c r="H56" s="70"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="64" t="s">
         <v>2</v>
       </c>
@@ -17485,7 +17377,7 @@
       <c r="G57" s="98"/>
       <c r="H57" s="70"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
       <c r="D58" s="64"/>
@@ -17494,7 +17386,7 @@
       <c r="G58" s="99"/>
       <c r="H58" s="70"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="59" t="s">
         <v>103</v>
       </c>
@@ -17509,7 +17401,7 @@
       <c r="G59" s="97"/>
       <c r="H59" s="70"/>
     </row>
-    <row r="60" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="66" t="s">
         <v>12</v>
       </c>
@@ -17524,7 +17416,7 @@
       <c r="G60" s="97"/>
       <c r="H60" s="70"/>
     </row>
-    <row r="61" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="66" t="s">
         <v>13</v>
       </c>
@@ -17539,7 +17431,7 @@
       <c r="G61" s="97"/>
       <c r="H61" s="70"/>
     </row>
-    <row r="62" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="66" t="s">
         <v>14</v>
       </c>
@@ -17554,7 +17446,7 @@
       <c r="G62" s="97"/>
       <c r="H62" s="70"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="64" t="s">
         <v>2</v>
       </c>
@@ -17574,7 +17466,7 @@
       <c r="G63" s="98"/>
       <c r="H63" s="70"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
       <c r="D64" s="64"/>
@@ -17583,7 +17475,7 @@
       <c r="G64" s="99"/>
       <c r="H64" s="70"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="59" t="s">
         <v>104</v>
       </c>
@@ -17598,7 +17490,7 @@
       <c r="G65" s="97"/>
       <c r="H65" s="70"/>
     </row>
-    <row r="66" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="66" t="s">
         <v>12</v>
       </c>
@@ -17613,7 +17505,7 @@
       <c r="G66" s="97"/>
       <c r="H66" s="70"/>
     </row>
-    <row r="67" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="66" t="s">
         <v>13</v>
       </c>
@@ -17628,7 +17520,7 @@
       <c r="G67" s="97"/>
       <c r="H67" s="70"/>
     </row>
-    <row r="68" spans="2:8" ht="44.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="66" t="s">
         <v>14</v>
       </c>
@@ -17643,7 +17535,7 @@
       <c r="G68" s="97"/>
       <c r="H68" s="70"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="64" t="s">
         <v>2</v>
       </c>
@@ -17663,7 +17555,7 @@
       <c r="G69" s="98"/>
       <c r="H69" s="70"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="64"/>
       <c r="C70" s="64"/>
       <c r="D70" s="64"/>
@@ -17672,7 +17564,7 @@
       <c r="G70" s="99"/>
       <c r="H70" s="70"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="59" t="s">
         <v>105</v>
       </c>
@@ -17687,7 +17579,7 @@
       <c r="G71" s="97"/>
       <c r="H71" s="70"/>
     </row>
-    <row r="72" spans="2:8" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="66" t="s">
         <v>12</v>
       </c>
@@ -17702,7 +17594,7 @@
       <c r="G72" s="97"/>
       <c r="H72" s="70"/>
     </row>
-    <row r="73" spans="2:8" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="66" t="s">
         <v>13</v>
       </c>
@@ -17717,7 +17609,7 @@
       <c r="G73" s="97"/>
       <c r="H73" s="70"/>
     </row>
-    <row r="74" spans="2:8" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="66" t="s">
         <v>14</v>
       </c>
@@ -17732,7 +17624,7 @@
       <c r="G74" s="97"/>
       <c r="H74" s="70"/>
     </row>
-    <row r="75" spans="2:8" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="66" t="s">
         <v>15</v>
       </c>
@@ -17747,7 +17639,7 @@
       <c r="G75" s="97"/>
       <c r="H75" s="70"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="64" t="s">
         <v>2</v>
       </c>
@@ -17767,7 +17659,7 @@
       <c r="G76" s="98"/>
       <c r="H76" s="70"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
       <c r="D77" s="64"/>
@@ -17776,7 +17668,7 @@
       <c r="G77" s="99"/>
       <c r="H77" s="70"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="59" t="s">
         <v>106</v>
       </c>
@@ -17791,7 +17683,7 @@
       <c r="G78" s="97"/>
       <c r="H78" s="70"/>
     </row>
-    <row r="79" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="66" t="s">
         <v>12</v>
       </c>
@@ -17806,7 +17698,7 @@
       <c r="G79" s="97"/>
       <c r="H79" s="70"/>
     </row>
-    <row r="80" spans="2:8" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="66" t="s">
         <v>13</v>
       </c>
@@ -17821,7 +17713,7 @@
       <c r="G80" s="97"/>
       <c r="H80" s="70"/>
     </row>
-    <row r="81" spans="2:8" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="66" t="s">
         <v>14</v>
       </c>
@@ -17836,7 +17728,7 @@
       <c r="G81" s="97"/>
       <c r="H81" s="70"/>
     </row>
-    <row r="82" spans="2:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="66" t="s">
         <v>15</v>
       </c>
@@ -17851,7 +17743,7 @@
       <c r="G82" s="97"/>
       <c r="H82" s="70"/>
     </row>
-    <row r="83" spans="2:8" ht="44.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="66" t="s">
         <v>16</v>
       </c>
@@ -17866,7 +17758,7 @@
       <c r="G83" s="97"/>
       <c r="H83" s="70"/>
     </row>
-    <row r="84" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="66" t="s">
         <v>17</v>
       </c>
@@ -17881,7 +17773,7 @@
       <c r="G84" s="97"/>
       <c r="H84" s="70"/>
     </row>
-    <row r="85" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="66" t="s">
         <v>18</v>
       </c>
@@ -17896,7 +17788,7 @@
       <c r="G85" s="97"/>
       <c r="H85" s="70"/>
     </row>
-    <row r="86" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="66" t="s">
         <v>19</v>
       </c>
@@ -17911,7 +17803,7 @@
       <c r="G86" s="97"/>
       <c r="H86" s="70"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="64" t="s">
         <v>2</v>
       </c>
@@ -17931,7 +17823,7 @@
       <c r="G87" s="98"/>
       <c r="H87" s="70"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="64"/>
       <c r="C88" s="64"/>
       <c r="D88" s="64"/>
@@ -17940,7 +17832,7 @@
       <c r="G88" s="99"/>
       <c r="H88" s="70"/>
     </row>
-    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="59" t="s">
         <v>107</v>
       </c>
@@ -17955,7 +17847,7 @@
       <c r="G89" s="97"/>
       <c r="H89" s="70"/>
     </row>
-    <row r="90" spans="2:8" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="66" t="s">
         <v>12</v>
       </c>
@@ -17970,7 +17862,7 @@
       <c r="G90" s="97"/>
       <c r="H90" s="70"/>
     </row>
-    <row r="91" spans="2:8" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="66" t="s">
         <v>13</v>
       </c>
@@ -17985,7 +17877,7 @@
       <c r="G91" s="97"/>
       <c r="H91" s="70"/>
     </row>
-    <row r="92" spans="2:8" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="66" t="s">
         <v>14</v>
       </c>
@@ -18000,7 +17892,7 @@
       <c r="G92" s="97"/>
       <c r="H92" s="70"/>
     </row>
-    <row r="93" spans="2:8" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="66" t="s">
         <v>15</v>
       </c>
@@ -18015,7 +17907,7 @@
       <c r="G93" s="97"/>
       <c r="H93" s="70"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="64" t="s">
         <v>2</v>
       </c>
@@ -18035,7 +17927,7 @@
       <c r="G94" s="98"/>
       <c r="H94" s="70"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="64"/>
       <c r="C95" s="64"/>
       <c r="D95" s="64"/>
@@ -18044,7 +17936,7 @@
       <c r="G95" s="99"/>
       <c r="H95" s="70"/>
     </row>
-    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="59" t="s">
         <v>108</v>
       </c>
@@ -18059,7 +17951,7 @@
       <c r="G96" s="97"/>
       <c r="H96" s="70"/>
     </row>
-    <row r="97" spans="2:8" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="66" t="s">
         <v>12</v>
       </c>
@@ -18074,7 +17966,7 @@
       <c r="G97" s="97"/>
       <c r="H97" s="70"/>
     </row>
-    <row r="98" spans="2:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="66" t="s">
         <v>13</v>
       </c>
@@ -18089,7 +17981,7 @@
       <c r="G98" s="97"/>
       <c r="H98" s="70"/>
     </row>
-    <row r="99" spans="2:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="66" t="s">
         <v>14</v>
       </c>
@@ -18104,7 +17996,7 @@
       <c r="G99" s="97"/>
       <c r="H99" s="70"/>
     </row>
-    <row r="100" spans="2:8" ht="44.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="66" t="s">
         <v>15</v>
       </c>
@@ -18119,7 +18011,7 @@
       <c r="G100" s="97"/>
       <c r="H100" s="70"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="64" t="s">
         <v>2</v>
       </c>
@@ -18139,7 +18031,7 @@
       <c r="G101" s="98"/>
       <c r="H101" s="70"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="64"/>
       <c r="C102" s="72"/>
       <c r="E102" s="64"/>
@@ -18147,7 +18039,7 @@
       <c r="G102" s="100"/>
       <c r="H102" s="70"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="74" t="s">
         <v>5</v>
       </c>
@@ -18161,7 +18053,7 @@
       <c r="G103" s="97"/>
       <c r="H103" s="70"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="74" t="s">
         <v>6</v>
       </c>
@@ -18173,7 +18065,7 @@
       <c r="E104" s="64"/>
       <c r="H104" s="70"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="59" t="s">
         <v>3</v>
       </c>
@@ -18187,7 +18079,7 @@
       <c r="G105" s="102"/>
       <c r="H105" s="70"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="103"/>
       <c r="C106" s="72"/>
     </row>
@@ -18204,64 +18096,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.91796875" customWidth="1"/>
-    <col min="2" max="2" width="5.6484375" customWidth="1"/>
-    <col min="3" max="3" width="45.6015625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="12.9140625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="195" t="s">
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="196" t="s">
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="183" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
-    </row>
-    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="2:6" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>111</v>
       </c>
@@ -18278,31 +18170,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25">
+        <f>'BAB I'!C218</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="26">
         <f>+'BAB I'!C219</f>
         <v>1220</v>
       </c>
       <c r="F9" s="27">
-        <f>+'BAB I'!E220</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <f>D9/E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>2</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="29">
+        <f>'BAB II'!D261</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="3">
         <v>1510</v>
       </c>
@@ -18311,14 +18209,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28">
         <v>3</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29">
+        <f>'BAB III'!D285</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="3">
         <v>1720</v>
       </c>
@@ -18327,24 +18228,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28">
         <v>4</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="29">
+        <f>'BAB IV'!D103</f>
+        <v>0</v>
+      </c>
       <c r="E12" s="3">
         <f>+'BAB IV'!D104</f>
         <v>580</v>
       </c>
       <c r="F12" s="30">
-        <f>+'BAB IV'!F105</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>D12/E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31"/>
       <c r="C13" s="32" t="s">
         <v>115</v>
@@ -18359,7 +18263,7 @@
       </c>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="36"/>
       <c r="C14" s="37" t="s">
         <v>149</v>
@@ -18371,60 +18275,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="41" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="41"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="41"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="41"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="41"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
       <c r="C22" s="41"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="42"/>
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="42"/>
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
   </sheetData>
